--- a/500all/speech_level/speeches_CHRG-114hhrg98640.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98640.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412564</t>
   </si>
   <si>
-    <t>Brad R. Wenstrup</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Good afternoon, everyone. The subcommittee will come to order.    Before we begin, I would like to ask unanimous consent that our colleague Chairman Miller be allowed to sit at the dais, to make opening statements, and ask questions.    Hearing no objection, so ordered.    I want to thank you all for joining us here today to discuss legislation pending before the subcommittee concerning education benefits, employment programs for our returning servicemembers and veterans, as well as accountability at the Department of Veterans Affairs.    This afternoon, we have nine important pieces of legislation before us.    I will focus my remarks on one of these bills, which I introduced earlier this year, H.R. 2344, the Veterans Vocational Rehabilitation and Employment Improvement Act of 2015, as well as the draft bill that is on the agenda.    VA's Vocational Rehab and Employment, VR&amp;E, program exists to help disabled veterans become employment-ready or to assist the most severely disabled reach a point of maximum independent daily living. For years, we have heard from veterans and VSOs that the time it takes to complete a rehabilitation plan from the time of application to full rehabilitation is too long. And they have also said that the caseload for counselors is too high, which then doesn't allow the counselor to appropriately help each client.    According to VA, on average, veterans spend anywhere between 5 to 10 years in the program--which, if that is how long it takes to rehabilitate some of these veterans, then that is understandable, but I fear that this extended length of time could also be due to an overworked system, a large caseload per counselor, and reliance on a primarily paper-based processing system.    H.R. 2344 is aimed at ensuring veterans are receiving thorough and diligent assistance from their counselors and that they are provided the best resources possible to get them back to an employment-ready status or to a position where they are able to live independently on their own. Our disabled veterans, who have sacrificed so much, deserve to have a fulfilling life following their service.    This bill would require that if a veteran is pursuing a course of education or training through VR&amp;E that the program be approved for GI Bill benefits. Under current law, if a veteran is going to school through Voc Rehab, that school does not need to be approved by VA and the State approving agencies for GI Bill benefits.    Programs will have a year following enactment to come into compliance with these rules. But I hope that this will increase oversight, and ensure that there aren't any so-called fly-by-night schools taking advantage of our disabled veterans.    My bill would also change the law so that if a veteran is doing any adaptations to their home through VR&amp;E that those changes be made under the rules already existing for specially adapted housing grants and by their employees, as opposed to the veteran's Voc Rehab counselor overseeing the changes. This accomplishes two things: gets these counselors out of the business of making home construction decisions and instead allows them to focus on their primary goal, to rehab the veteran; and ensures that experts who deal with home adaptations on a daily basis are now the ones handling oversight of these projects so we can ensure veterans are getting the best outcomes in their homes.    My bill would also encourage and authorize the Secretary to prioritize VR&amp;E services based on need so that the VA can take into account things such as disability ratings, severity of employment handicaps, income, and other factors as the Department and its counselors are managing their ever-growing caseload. This provision is not to push any veterans out of the program but would be there to allow VA to prioritize the most disabled and employment-handicapped veterans as they seek VR&amp;E services.    Lastly, H.R. 2344 would require the Secretary to reduce redundancies and process all VR&amp;E claims and payments in a paperless system, and it authorizes $10 million to upgrade their IT systems to make the change. VR&amp;E has told us that they are currently in the process of updating their systems and that they have received authorization and funding for this upgrade. However, we have seen in the past that this money can easily be shifted elsewhere at any point. Shifting Voc Rehab to a paperless system will speed up the application process, increase efficiency, and assist in a quicker rehabilitation timeline for veterans in the program.    I do believe VR&amp;E is constantly improving, and I appreciate the work the VR&amp;E service director, Jack Kammerer, and his employees do on a daily basis. And the purpose of this bill is to assist them in their critical mission for disabled veterans.    Lastly, today, we will also be discussing a draft bill that deals with GI Bill transferability issues. The draft came from recommendations made by the Military Compensation and Retirement Modernization Commission earlier this year. The draft would change the service time requirement to be eligible to transfer GI Bill benefits to dependents to 10 years, with an additional 2-year commitment. Currently, the time requirement is 6 years, with an additional 4-year commitment.    The draft bill would also reduce the monthly living stipend that transferees receive by half of its current rate. The commission recommended cutting the living stipend completely for dependents. However, I do think that there should be some amount of a stipend to be given to transferees, as that is in many cases also a benefit to their spouse or parent who served and transferred them this benefit.    If we are to move this bill forward, I would commit to using the savings from these changes to improve GI Bill benefits or other programs for veterans, which I think we can all agree is important.    With that being said, I am eager to discuss each of the nine pieces of legislation before us today. And I am grateful to my colleagues who have introduced these bills and to our witnesses for being here to discuss them with us, and I look forward to a productive and meaningful discussion.    I will now yield to my colleague, Ranking Member Takano for any opening statement he may have.</t>
   </si>
   <si>
     <t>412520</t>
   </si>
   <si>
-    <t>Mark Takano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman.    As we gather today, I just want to take a moment to thank you, Chairman Wenstrup, for conducting the Economic Opportunity Subcommittee in such a productive, positive, and bipartisan manner in this Congress. You have led the EO Subcommittee so that it has become the most productive of the four House Veterans' Affairs Committee subcommittees thus far in the 114th Congress. Under your leadership, we have conducted a legislative hearing and a markup under regular order, and we have forwarded 11 bills favorably to the full committee with unanimous bipartisan support. Five of our bills have actually passed the House.    I particularly want to also congratulate my colleague, who is not here, Miss Rice, on seeing her very first piece of legislation pass the House, H.R. 1382, the BRAVE Act.    So, on this high note, today we begin our second round of legislative hearings with nine bills before us. I have introduced two of these bills: H.R. 2360, the Career-Ready Student Veterans Act, and H.R. 2361, the Work-Study for Student Veterans Act. I am very grateful that both enjoy bipartisan support.    The first, H.R. 2360, the Career-Ready Student Veterans Act, ensures that career education programs designed to prepare our student veterans for entry into the workforce are actually doing so. The bill would mandate that programs meet certain requirements in order to be eligible to receive GI Bill benefits.    Currently, education programs can be eligible for GI Bill benefits even if they lack proper accreditation or do not meet State licensure or certification requirements. This means that veterans can use their hard-earned education benefits to attend programs that do not prepare them for a career in their field of study. H.R. 2360 would change this policy so that student veterans could only use their GI Bill benefits at education programs that meet proper accreditation, licensure, and certification requirements.    Now, the Department of Defense already has this policy in place to protect servicemembers using tuition assistance benefits. It only makes sense that Congress should protect student veterans in the same way.    I am very proud to say that H.R. 2360 enjoys clear bipartisan support, and I urge my colleagues to consider supporting the bill as we listen to the testimony today.    My second bill, H.R. 2361, the Work-Study for Student Veterans Act, reinstates certain Department of Veterans Affairs student work-study activities that expired on June 30, 2013.    Through the VA's Student Work-Study Allowance Program, qualifying student veterans in college degree programs or vocational or professional programs are paid to work in a variety of capacities on campus at VA facilities or at other veterans-centered organizations to assist fellow veterans.    The work-study program achieves two important goals: offering student veterans a way to earn a little extra money, and providing transitioning veterans with the guidance and assistance of fellow veterans who know firsthand what the transition is like.    Unfortunately, the 113th Congress in the Senate failed to act on H.R. 1453, the Work-Study for Student Veterans Act, which passed the House and would have extended the authorization for several qualifying VA work-study activities.    I hope my colleagues will join me in support of this bill as we go forward. I hope we might hear from the VA today that they would like to see this program made permanent.    Now, there is a lot on the agenda, and I don't want to take up too much time here, but I do appreciate all of our witnesses for being here today, and I look forward to their testimony.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Miller</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Miller. Thank you very much, Chairman Wenstrup, Ranking Member Takano. I appreciate the opportunity not only to sit at the dais today but also to present a couple of pieces of legislation for your consideration today. I also appreciate the fact that you are allowing me to speak before Colonel Cook.    Sir.    I want to focus on the two bills that you talked about, H.R. 1994 and the VA Accountability Act of 2015. It provides the Secretary of the Department of Veterans Affairs with yet another tool to remove any VA employee for poor performance or misconduct. And the provision is simply an extension of the same authority that we passed last summer in the Choice Act to remove senior executives.    To prevent retaliation, the bill would protect whistleblowers by not allowing the Secretary to use this authority on employees who have filed a complaint with the Office of Special Counsel. This provision is critically important as we continue to uncover many instances of whistleblower retaliation, and the last thing I want is for this new provision that is meant to hold bad employees accountable to instead harm legitimate whistleblowers.    Now, additionally, this bill would require that all probationary periods for new VA employees last for at least 18 months instead of the current period of 1 year. It would also give the Secretary the authority to extend this probationary period as he or she would see fit. The provision was at the suggestion from Partnership for Public Service, a good government think tank, and will give VA supervisors more flexibility to determine new employees' performance before they actually become a permanent employee of the Department. I would also note that most medical professionals in VA are already required to complete a 2-year probationary period.    Finally, the bill would require that the Government Accountability Office would conduct a study of VA time, space, and resources devoted to labor union activities.    Some have said that this bill is nothing but a partisan attack against hardworking VA employees. This could be no further from that particular truth. As I have stated from day one, I believe that 99 percent of VA's more than 300,000 employees are dedicated and hardworking and are not part of the problem that exists at VA today.    The true problem is that, more than a year after enduring the biggest scandal in VA history, in which 110 VA facilities allegedly maintained secret lists to hide wait times, the Department has fired only one for wait-time manipulation--just one person. Even worse, rather than disciplining bad employees, VA often just transfers them to other VA facilities or puts them on paid administrative leave for months on end as they receive their full salary and waste taxpayer dollars.    Whether it is Philadelphia, Reno, Nashville, Phoenix, or a plethora of other facilities, VA's tradition of transferring problem workers, putting them on paid leave, or simply allowing them to go virtually unpunished continues because current civil service rules make it nearly impossible to hold bad employees accountable. One of the reasons I know this is because high-ranking officials at VA, people who work directly for the Secretary, have told me, in fact, that this is the case.    In a hearing last month, Deputy Secretary Gibson also said it was too hard to fire employees at VA. In one instance, the Office of Inspector General completed a well-documented report proving one employee's blatant disregard for government regulations and rules. And, in this report, the IG recommended that the employee pay back tens of thousands of dollars in wasted time, wages, and travel fees which the employee had basically stolen during his time as a VA employee. Furthermore, the IG recommended that VA take administrative action against the employee.    So what did VA do with this report and the recommendations that were contained in it? Well, they reached a settlement agreement with the employee which only required the individual to pay back one-third of the amount of money the IG said the employee owed, allowed the employee to resign as opposed to being fired from VA, expunged all documentation from his official record regarding his misconduct during his time as a VA employee, and required VA to pay the employee several thousands of dollars to cover his attorney's fees he incurred during VA's investigation and their settlement.    We have asked the Department whether this employee has indeed paid back the amount he owed, and, although we are still awaiting a response, I have a sneaking suspicion that he has yet to pay back a single dime that was owed.    I am sure many people would be shocked to learn about the incident I just described and will wonder why VA just didn't do the right thing and fire this individual as well as collect the money that he owed the government. Well, the answer to that question lies in this chart that is going to be placed up on the screens that was part of a GAO report on the civil service from earlier this year. And you also have it in your binder.</t>
   </si>
   <si>
@@ -85,18 +76,12 @@
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you, Chairman Miller. And I appreciate your deep dive into these issues. I think it is unfair not only to our veterans but to the thousands of good VA employees that there they are, devoted to the veteran, and we have those that take advantage of working in the system. I appreciate your testimony.    It is an honor today to be joined by our colleagues Colonel Paul Cook of California and Mr. Sean Maloney of New York at the witness table today. And I understand Mr. Flores will be here shortly.    Mr. Flores and Colonel Cook used to serve on this committee, and Mr. Flores used to be the chairman of this subcommittee last Congress. So I am sure it is a little bit of a different view for him when he gets here and sits at the witness table.    But I thank all three of you for being here.    Colonel Cook, you are now recognized.</t>
   </si>
   <si>
-    <t>Cook</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cook. Thank you, Mr. Chairman.    It was no problem yielding to Chairman Miller. It was a little bit disconcerting to see that when he was giving the definition of ``insanity'' he looked over at me. I don't want to read into it.    Anyway, my bill, H.R. 832, ensures that veterans are receiving effective and successful employment training services.    This bipartisan bill authorizes an independent organization to collect and analyze data on the effectiveness of the Department of Labor's Veterans' Employment Training Service. The study will focus on veterans who have received intensive services from two programs under VETS: the Disabled Veterans Outreach Program and the Local Veterans Employment Representatives Program.    Disabled Veterans Outreach Program specialists provide job training for veterans, with special emphasis on veterans with service-connected disabilities. These specialists help veterans to be competitive in the labor market. They focus on veterans who are economically or educationally disadvantaged, including homeless veterans and veterans with barriers to employment. Local veterans employment representatives conduct outreach to employers and focus on increasing and promoting the hiring of veterans.    The study will track the employment status of veterans who have received these services, determine if the program contributed toward their employment, monitor the employment retention rate, and determine if the services provided helped them increase their average earnings. A report on the findings will be presented to the Committee on Veterans Affairs in the House and Senate every year for the next 5 years.    Congress owes it to our veterans to provide them with the best employment services possible. Simply authorizing these programs isn't enough; we have to follow up and ensure they are working as intended. We saw at the VA what happens when the bureaucracy isn't subject to vigorous oversight. If we are going to authorize these programs to boost veteran employment, Congress has the duty to ensure that they are working.    You know, we have talked about this over and over again. Before I finish up, I do want to thank Congressman Costello and Congresswoman Titus for cosponsoring this bill.    The bottom line is that, with the military and veterans, we have a responsibility to take care of the troops. If a program is there to provide a certain function or mission, we have to make sure it is working; if not, get rid of it or change it. We owe that much to our veterans.    Thank you very much for letting me present this bill.</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you, Colonel Cook.    Mr. Maloney, you are now recognized.</t>
   </si>
   <si>
-    <t>Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Maloney. Thank you, Mr. Chairman. It is an honor to be here with all of you and with my colleague Colonel Cook. He and I had the opportunity to lay a wreath at the Tomb of the Unknown Soldier just last week. I stood and watched while he performed that difficult duty in the rain.</t>
   </si>
   <si>
@@ -109,63 +94,42 @@
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Maloney.    And I thank you both for bringing forth these bills and speaking on them at today's subcommittee hearing.    Unless there are any questions for our colleagues, you are now excused.    I now invite our second panel to the table: Mr. Paul Varela, the assistant national legislative director for Disabled American Veterans; Mr. Brendon Gehrke, senior legislative associate for the National Legislative Service at the Veterans of Foreign Wars of the United States; Mr. Steve Gonzalez, assistant director for the Veterans Employment and Education Division at the American Legion; Mr. David Borer, general counsel for the American Federation of Government Employees and AFL-CIO; Mr. Christopher Neiweem, legislative associate at the Iraq and Afghanistan Veterans of America; and, finally, Mr. Rick Weidman, executive director for government affairs at the Vietnam Veterans of America.    I thank you all for being here, your service to our Nation in uniform, and for your hard work and advocacy for veterans.    Mr. Varela, we will begin with you, and you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Varela</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Varela. Good afternoon, Chairman Wenstrup, Ranking Member Takano, and members of the subcommittee. DAV appreciates the opportunity afforded to us today to testify at today's legislative hearing.    For the following bills--H.R. 832, 2360, 2361--and the draft bill regarding the transfer of unused educational assistance benefits under the Post-9/11 GI Bill, DAV has no resolution from our members pertaining to the issues identified within these bills but would not oppose passage of the legislation. For the remaining bills, we would like offer our views and, in some cases, our recommendations.    H.R. 356 contains several provisions, one of which would require the Secretary of VA to perform an analysis and make recommendations in a report to Congress to encourage Post-9/11 GI Bill-eligible veterans to use Vocational Rehabilitation and Employment, VR&amp;E, benefits and services. We have no resolution from our membership regarding this issue.    DAV would not oppose the bill's passage; however, encouraging veterans with eligibility under Post-9/11 GI Bill to instead use VR&amp;E benefits and services will require additional resources in VR&amp;E to meet increased demand. VR&amp;E's current counselor-to-client ratio remains high, which contributes directly to delays in delivering timely and effective services.    DAV and our independent budget partners have recommended a more practical counselor-to-client ratio of 1 to 125. To achieve this ratio in fiscal year 2016, VR&amp;E would require an additional 382 full-time-employee equivalents, FTEE, 277 dedicated as VR&amp;E counselors, and the remaining 105 employees dedicated towards support services, bringing VR&amp;E's total FTE strength to 1,824.    DAV calls on Congress to increase staffing levels within VA's VR&amp;E program in accordance with our National Resolution No. 052. If Congress intends to encourage increased use of VR&amp;E by Post-9/11 GI Bill-eligible veterans, then adequate resources will be essential to strengthen this critical program to meet the demand.    H.R. 1994 would provide the VA Secretary with the authority to remove or demote employees based on performance or misconduct. We have no resolution from our membership on this topic and take no position on this bill.    H.R. 2133 would provide additional training options under the Transition Assistance Program, now TAP GPS, to members of the Armed Forces separating from Active Duty. The Secretary of Defense and Homeland Security would be required to provide additional training opportunities to these servicemembers. In accordance with DAV Resolution No. 053, we support this bill. Expanding training opportunities to these separating servicemembers will only help to better their chances of success when competing within the civilian job market.    H.R. 2275 would establish within VA a new Veterans Economic Opportunity and Transition Administration. It would improve employment and educational opportunities for veterans by consolidating various VA programs now managed by the Veterans Benefits Administration and also transfer veteran-focused programs from Department of Labor to VA.    Mr. Chairman, DAV previously testified before this subcommittee on February 12, 2015, regarding this very issue and encouraged Congress to introduce and enact this proposal. We are pleased to support this bill, consistent with DAV Resolution No. 227.    Consolidation has the potential to streamline and enhance economic and employment prospects for wounded, injured, and ill wartime veterans and provide them with meaningful and gainful opportunities. Ensuring these veterans and their families have optimal, seamless access to employment and economic prospects and services is a central concern of our organization. In the wake of war, we believe that we reflect the concerns of the entire Nation. DAV welcomes the opportunity to work with this subcommittee to see this justified reform enacted into law, and DAV thanks the sponsor for introducing this bill.    H.R. 2344 seeks to make improvements within VA's VR&amp;E program that would affect the approval of courses pursued under VR&amp;E, eligibility for special adapted housing, and new authority to prioritize VR&amp;E services based on need for program participants, and a $10 million authorization for related information technology enhancements.    DAV has no resolution from our membership on the particular issues identified within this bill but would not oppose passage of the legislation. However, we would recommend adding three additional reporting requirements: first, a report that captures information pertaining to the disapproval of courses under VR&amp;E that fail to meet the approval standards set forth within the Montgomery GI Bill and Post-9/11 GI Bill programs; second, a report that collects information relative to the number of waivers seeking course approval and the disposition of any waiver requests; and, third, a report capturing information regarding need-based prioritizations.    Chairman Wenstrup, Ranking Member Takano, and members of the subcommittee, this concludes my testimony, and I am prepared to answer any questions you may have.    [The prepared statement of Paul R. Varela appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you very much.    Mr. Gehrke, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Gehrke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gehrke. Chairman Wenstrup, Ranking Member Takano, and members of the subcommittee, thank you for allowing me to present the VFW views on the pending legislation.    The VFW supports the intent of H.R. 356; however, we suggest that the Congress take a different approach. We share the concern that VR&amp;E may not be able to serve the veterans who need it most if Congress does not make changes to the current system. However, we are doubtful that a VA action plan will remedy VR&amp;E's access issues and may unnecessarily burden an already overworked agency. Instead, Congress should fund the longitudinal study that it authorized in the Veterans Benefits Improvement Act of 2008 so that VA can identify problems and modify VR&amp;E to better serve veterans.    To better understand the veteran hiring experience, the VFW supports H.R. 832, and we urge the committee to appropriately fund the study.    The VFW strongly supports H.R. 1994, Chairman Miller's VA Accountability Act of 2015. We believe that VA and Congress must collaborate to identify and fix what is broken within VA, must hold employees accountable, and must do everything possible to restore veterans' faith in their VA.    In addition, we urge the committee to take a multidimensional approach to tackling issues with VA's human resource practices. The VFW is concerned with whistleblower retaliation, VA's hiring process, and the sinking morale of VA employees. A Federal survey shows that less than 50 percent of VA employees feel that arbitrary action, personal favoritism, and coercion for partisan political purposes is not tolerated. Also, VA employee satisfaction scores fell in 76 out of 84 measures within the last year.    With low morale comes a high price tag. The Gallup organization estimates that millions of disengaged employees cost the American economy as much as $350 billion per year in lost revenue as a result of low employee morale. VA can't afford to lose time and money from poor hiring practices or low employee morale. We fear that VA's workforce productivity could further decline due to staffing shortages and low employee morale if VA cannot attract and keep high-achieving employees.    We believe that, in order to help foster a culture of accountability, Congress should include language in the bill to prevent whistleblower retaliation and provide VA with additional resources to recruit, train, and retain the best employees.    The VFW supports H.R. 2275. The VFW supports this bill because it can protect veterans job programs from sequestration, better ensure that veterans job programs receive proper congressional oversight, and improve veterans' access to job programs by streamlining government services. Also, Congress must ensure that Veterans' Employment Training Services is always properly funded no matter what agency has authorization over the program--or authority over the program.    The VFW supports H.R. 2344, except section 4. Section 4 requires VA to prioritize certain disabled veterans over other disabled veterans for access to VR&amp;E programs. The VFW believes that no veteran should have to wait or be denied the VA services that they have earned.    This provision calls for VA to manage to a budget instead of the need. As we have recently witnessed, this tactic leads to veterans being denied care and services they need to maintain a healthy life and provide for their families. We cannot allow this to happen again, and Congress must fully fund all of VA and expand VR&amp;E resources so they can better provide employment services to disabled veterans.    The VFW supports H.R. 2360 to ensure schools who are eligible for the GI Bill are offering programs that award student veterans with proper programmatic accreditation that meets veterans' and employers' expectations.    Unfortunately, some schools offer degrees that do not provide graduates the needed credentials to qualify for the professions within their field of study. Worse yet, when asked, many of these schools offer prospective students unclear information about programmatic accreditation and their requirements for professional certification.    This is not a wise use of taxpayer dollars, it allows students to use money, whether it comes from military tuition assistance or the GI Bill, for degrees that will not result in more veterans being employed.    The VFW supports H.R. 2361.    Regarding the draft bill language, the VFW played an integral role in passing the Post-9/11 GI Bill, and we have a vested interest in ensuring the long-term viability of veterans education programs. The GI Bill's primary use should be to help veterans reintegrate into civilian life by providing the education and skills necessary to gain meaningful employment.    And the retention aspect should never provide a greater benefit to dependents than it does to wartime veterans. Therefore, any reduction of certain elements in the GI Bill must include increases for those who need it most. The committee should concentrate on closing gaps in the Fry Scholarship and improving the benefit to Guardsmen and Reservists who deployed overseas in defense of our country, especially those who are recovering from wounds or injuries incurred on Active Duty.    This concludes my remarks, and I look forward to answering any questions the committee may have.    [The prepared statement of Brendon Gehrke appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you, Mr. Gehrke.    And before we go to Mr. Gonzalez, I would like to pause for a second to recognize Mr. Flores of Texas and give him an opportunity to share his remarks on his bill, H.R. 2133.</t>
   </si>
   <si>
-    <t>Flores</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Flores. Okay. Thank you, Chairman Wenstrup and Ranking Member Takano. It is great to be back in this esteemed committee today.    I am here today to testify in support of my bill, H.R. 2133, the Servicemembers' Choice in Transition Act. I introduced this legislation during the 113th Congress as the former chair of this subcommittee and was pleased to see it pass through the subcommittee last Congress.    The Servicemembers' Choice in Transition Act is meant to enhance the Transition Assistance Program, or TAP, that was required for all separating servicemembers in the VOW to Hire Heroes Act of 2011. TAP is a joint DoD, DoL, and VA program that provide training to servicemembers about veterans benefits, job search skills, pre-separation counseling, resume writing, interview preparation, and other transition training.    The bill would modify TAP to enable those leaving military service to attend the additional 2-day in-depth informational tracks that are currently optional. These three tracks cover career technical training, entrepreneurship opportunities, and access to higher education.    As I said before, the VOW to Hire Heroes Act required mandatory attendance at TAP for all but a few servicemembers. However, it is currently not mandatory for base commanders to allow servicemembers to attend these three tracks. Unfortunately, by not requiring these tracks, DoD's model for TAP falls short in providing sufficiently detailed information for transitioning servicemembers and preparing them for civilian life. The Post-9/11 GI Bill, for example, is a very generous benefit and could be worth well over $250,000 to a veteran over 4 years. So it is important that the veteran is fully briefed on what that benefit can provide in the long run.    Furthermore, if a veteran was planning to go to college and use their Post-9/11 benefits, the education track would help them decide whether they are even ready for postsecondary education and/or what school best fits their needs. If they are not ready for school, then the education track gives a veteran an opportunity to be briefed on how to get ready, on how to set their education or training goals, on how to find out what schools would best meet their education or training goal, and on how to complete the admissions process, and, finally, how to finance their education or their training.    The importance of educating transitioning servicemembers before they use their GI Bill benefits was further highlighted and recommended to be mandatory for those who want to use their benefits in the recent 2015 Military Compensation and Retirement Modernization Commission report.    I believe that H.R. 2133, in making the optional tracks mandatory, would play an instrumental role in filling the gap as servicemembers transition from Active Duty to civilian life, while also giving the military services flexibility to meet those requirements. We owe it to our veterans to ensure that their transition into the workforce is as smooth as possible. By modifying the required contents of TAP, we are offering our servicemembers alternative training paths to better suit their intentions and to provide them with the tools for successful transition into civilian life.    Again, I want to thank the subcommittee for their time and support today. I also want to thank all the veterans service organizations that have shown support for this legislation in the past and today. And I urge passage of 2133.    And I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you, Mr. Flores.    We will now continue on with the panel.    And, Mr. Gonzalez, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gonzalez. Thank you, Mr. Chairman.    Good afternoon, Mr. Chairman and Ranking Member Takano, members of the subcommittee. Thank you for this opportunity to allow me to present the views of the American Legion, America's largest wartime veterans service organization, on several pieces of legislation being considered by the committee today.    Due to allotted time available, I will concentrate on three of the bills. First, I will address H.R. 832, the Veterans Employment and Training Service Longitudinal Study Act of 2015.    The American Legion would support a longitudinal study of the job counseling, training, and employment placement services, JVSG services, only if the bill were altered to direct the Secretary of Veterans Affairs to contract for this study as opposed to the Secretary of Labor.    In 2012, a similar proposal was made to study the Department of Labor employment services. At this time, Chairman Miller has stated more study was not needed and, quote, ``We have already study after study over the years that say the program does not work.'' The American Legion agrees with the chairman's assessment. A longitudinal assessment of the Department of Labor VETS performance can already be read in the 16 GAO and OIG reports dating back to 1997. All reports reveal negative findings.    Therefore, such a detailed study would be better implemented after JVSG and the HVRP are moved to VA and set under the purview of the Secretary of Veterans Affairs. The American Legion supports this legislation.    Next, I will address H.R. 2275, Jobs for Veterans Act of 2015.    The American Legion has long supported the Department of Labor Veterans Employment and Training Services, or better known as DOL-VETS. Unfortunately, the good faith of the veterans in this program have been rewarded with ongoing program management problems, including a lack of accountability.    Department of Labor's budget request makes it painfully clear that the agency with the monumental task of helping Americans to be gainfully employed is unable to give the proper attention to veterans employment issues that our constituents deserve.    At this juncture, the American Legion believes that the best way to improve DOL-VETS is to transfer the Jobs for Veterans State Grants and the Homeless Veterans Reintegration Portion of the program to VA. Though there is a place for a veterans office within Department of Labor, the American Legion believes these two programs would be better served if they were located in a new administration consolidated under the VA.    Lastly, I will address H.R. 2360, the Career-Ready Student Veterans Act.    Institution accreditation is typically done by regional and national accreditation bodies. Programmatic accreditation is for specific programs offered within an educational institution. Programs are typically accredited by specialized organizations. By not having the program accredited by the appropriate body, the individual does not make effective use of the GI Bill benefit if an individual uses the benefit to prepare for a license or certification occupation but the program does not meet the licensure requirements.    The American Legion will urge the Congress apply this requirement equally to all institutions of higher learning as well as nonaccredited schools. We also urge Congress also include all deemed approved degree programs and assure that the State approving agencies can have adequate oversight of all institutions of higher learning if we are to implement this piece of legislation.    The American Legion does have two questions or concerns.    One, does the proposed legislation only cover meeting the licensure or certification standards in the respective State where the institution is located? If that is the case, it is troubling for those veterans who do not plan to practice in the State where the school is located or individuals taking distance learning courses. The legislation should make clear who would determine the requirements for these programs or approval in all the States.    And then the last, number two: If the intent of the Congress is to add to the existing workload of the State approving agencies, which are already spread thin, then the Congress should give great consideration and reevaluation of the existing budget of the SAAs, to include increasing such budgets to ensure that the SAAs are able to meet their current workload as well as the possibility of this new add-on.    Thank you, Mr. Chairman, Ranking Member Takano.    And I will yield my time, Mr. Chairman.    [The prepared statement of Steve Gonzalez appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you very much.    Mr. Borer, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Borer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Borer. Chairman Wenstrup, Ranking Member Takano, and members of the subcommittee, thank you for the opportunity to testify today.    AFGE's National VA Council represents more than 220,000 VA employees. We strongly oppose H.R. 1994 as currently drafted and urge lawmakers to reject these counterproductive measures in favor of AFGE recommendations, including expanded whistleblower protections that would truly hold VA managers accountable and protect our veterans.    Presented as accountability for SES and upper management, the greatest target in this extreme bill is the 350,000 nonmanagement employees of the VA, including service-connected disabled veterans who clean operating rooms, maintain VA cemeteries, and rate disability claims and their coworkers, who are PTSD therapists, surgeons, bedside nurses, and so on.    Stripping job protections from nonmanagement employees will increase the mismanagement in the form of retaliation, discrimination, patronage, and antiveteran animus. The result will be to chill disclosures, destroy employee morale, and undermine the retention of the VA's most experienced and valuable employees.    This bill proceeds from the false premise that it is too hard to remove a Federal employee under the current system. On the contrary, nothing in the current law prevents agencies from removing employees. Competent and responsible managers can and do remove poor performers and employees who engage in misconduct, and they do not unfairly target good employees. And, for the record, Federal employees stop getting paid as soon as they are terminated.    Under section 2, all VA employees, including even GS-4 housekeepers or cemetery caretakers, would lose fundamental rights to notice and to be heard, including 30-days advance notice of an adverse action, 7 days for an employee to respond, an employee representative, a written decision, and an opportunity to appeal.    These provisions would turn the clock back for employment rights over 100 years. It is worse than traditional at-will employment, and, if enacted, it will make the VA an even less competitive employer.    Unlike private-sector employees, Federal workers cannot bring most contract or tort claims to the courts, so the administrative due process eliminated by section 2 is often VA workers' only real protection. The requirement in H.R. 1994 to get the approval of the Office of Special Counsel will not protect whistleblowers. This proposal ignores the practical realities that not all individuals will file corrective actions, and OSC is not well-suited to essentially pre-approve the removal of every would-be whistleblower.    Employees facing discrimination and other prohibited personnel practices would be forced into filing OSC complaints in order to shield themselves from their new at-will status. This helps neither veterans nor whistleblowers, but it will precipitate a flood of OSC complaints that will paralyze the OSC and obscure the most valid cases of whistleblower retaliation.    Section 3 of the bill would extend the 1-year probationary period to 18 months or longer and gives the Secretary discretion to extend it even further. Probationary employees can be fired very easily under current law. Recently hired veterans working for VA managers who failed to train them know this all too well. OSC and MSPB already struggle to protect probationary employees from unjustified adverse actions because the burden of proof on the employer is extremely low. Extending the probationary period makes this even worse, and it will erode the chances a whistleblower with a legitimate concern will come forward.    Regarding section 4, we do not oppose a responsible study of official time, but such a study should be based on objective criteria, such as those used by the GAO and the OPM. The use of official time in the VA benefits taxpayers and veterans and Federal employees because it reduces costly employee turnover, it improves service, it creates a safer workplace, and it leads to quicker implementation of agency initiatives. Official time gives workers a voice to resolve disputes efficiently, protect whistleblowers from retaliation, and implement new technology and other innovations in collaboration with management.    If H.R. 1994 is not amended to strike provisions that reduce due process, lengthen probationary periods, and attack union official time, the AFGE will vigorously oppose the bill. Instead, Mr. Chairman, we strongly urge you to demonstrate our shared commitment to veterans through positive reform. My written testimony lists our reform proposals, and I will be happy to discuss those.    Thank you again for allowing me to testify.    [The prepared statement of David Borer appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you.    Mr. Neiweem, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Neiweem</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Neiweem. Chairman Wenstrup, Ranking Member Takano, and distinguished members of the subcommittee, on behalf of Iraq and Afghanistan Veterans of America, our nearly 400,000 members and supporters, I would like to extend our gratitude for the opportunity to share our views and recommendations regarding these important pieces of legislation.    Starting with H.R. 356, disabled veteran unemployment has consistently been much higher than that of the greater veteran population, hovering at nearly 20 percent. Disabled veterans must be given the support necessary to overcome barriers to employment and achieve economic empowerment.    VR&amp;E exists for that very purpose, and yet many disabled veterans don't know it exists, do not participate, or too often find the services it offers to be inadequate in securing a rewarding career. This legislation would improve the VR&amp;E programs by creating an action plan to identify why the program is underutilized and put steps in place to improve its output.    The recommendations that would stem from its enactment would include an analysis and plan to increase disabled veteran participation. Additionally, a national staff training program would be installed for the counselors charged with implementing the program to ensure the variety of challenges their clients face are understood holistically. Without a fundamental understanding of the conditions a veteran is facing, a counselor will not be positioned to identify how to help the veteran secure a job and begin a rewarding career.    This legislation would improve a program that has been too often regarded as mediocre due to organizational factors that relates to the veteran-counselor relationship.    Turning to H.R. 832, veterans make use of services to assist them in transition for the sole purpose of improving their economic outcomes. Simply put, they want to succeed and secure a brighter financial tomorrow. This legislation would create a comprehensive longitudinal study to determine to what extent the job services veterans use aid them in securing careers.    Identifying which services veterans use and the amount of time they spent on Active Duty, whether or not they are collecting unemployment benefits, whether or not they secure work, and whether or not they stay with those jobs are all key pieces of information, the collection of which this bill would require. The report and data developed through this legislation is needed to ensure these programs are bringing back a return on investment for the veterans who are using them.    Turning to H.R. 1994, over 1 year after the Phoenix wait-list scandal shook the veterans community nationwide, the Department did not fire one employee for wrongdoing related to that incident. IAVA strongly supported the increased accountability provision of the Veterans Access, Choice, and Accountability Act last year, which gave the VA Secretary increased authority to remove the SES employees who did not serve our veterans to the standard that they earned. We now support in that same spirit expanding this removal authority to the greater VA workforce, notwithstanding whistleblowers, and publicly applaud Chairman Miller for refusing to give the Secretary any less authority than is fully necessary to get the Department back on the right track.    We have heard and agree with DepSec Gibson's testimony a few weeks back, which indicated it is currently too hard to hire and fire employees. This legislation would shorten the appeal period for VA employees engaged in misconduct or poor performance so, in those rare cases of wrongdoing, the Secretary is empowered to take corrective action more briskly. The process of personnel action should not languish in a sea of bureaucracy, as it has been.    I also want to make clear that the vast majority of the VA workforce does a fantastic job of serving our veterans every single day and too often does not receive enough praise. The sooner we get real reforms to stick, the sooner the headlines of misconduct will fade.    And in VA's testimony today you will read the false assumption that by enacting this piece of legislation it will result in disenheartment in the workforce and that employees could leave because of less protections. But the fact is, and VA states it, people serve at the VA because they want to serve veterans. And 90 percent, probably more, do a great job every day. And the idea of getting rid of those few folks the Department has proven they haven't been able to since last summer will improve morale, not reduce it.    H.R. 2133, we strongly support this legislation. It would allow a veteran transitioning away from Active Duty to receive additional education, career, and technical or entrepreneurial training. This would empower servicemembers to give them an early advantage in transitioning back to the workforce.    Turning to H.R. 2275, this legislation would create a fourth administration at VA that would align all veterans education, transition, and job placement programs under one agency entitled the Veterans Economic Opportunity and Transition Administration. This new administration would be led by the Under Secretary for Economic Opportunity.    Veterans we have spoken to have long reported overlapping services have clouded options rather than clarified them. GAO reports and feedback from our annual member survey have indicated the performance of LVERs and DVOPS under DOL-VETS has been stagnant at best and not shown the improvement needed to help veterans secure rewarding careers.    Ineffective oversight and incongruent placement of this service within a myriad of other programs over at DOL has not proven to be a positive fit, so we strongly support the legislation.    I will yield back and am happy to answer any other questions about any other bills.    [The prepared statement of Christopher Neiweem appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you.    Mr. Weidman, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Weidman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weidman. Thank you, Mr. Chairman. VVA appreciates the opportunity to offer our thoughts on the bills under consideration today.    We very much favor 2361 and look forward to an early passage. We would urge you to take a hard look at this bill to expand the kinds of activities that work-study students would be eligible for, including helping with the preparation of veterans' claims and doing other research, such as looking at military documents at the Archives to be able to substantiate claims. That was used very effectively back in the 1970s and early 1980s and, unfortunately, is one of the things that went away, and it would be a good thing to bring back, and very productive.    Also, thank you for 2360. We think that that would also be a bill that would help significantly.    Mr. Flores' TAP bill is--the real problem there is not what the law says; the real problem is what the military does. The Marines solved this problem because the Commandant said, ``You will,'' and put it in the commanders' OERs so if they didn't send all their people they would be relieved. It is real simple. And what is needed is the same kind of engagement from the other five services. And, while this legislation may help, without that strong commitment from the Secretary and from the Joint Chiefs, it ain't gonna happen, bluntly.    H.R. 356, the Employment Improvement Act, may help. I would say that VA in the last few years has made significant progress in cleaning up what was, in fact, a real mess in what is now known as the VR&amp;E services, but this bill can help by simply codifying it and pushing it further.    The other thing in that regard and that touches on a number of things that people talked about today is there is no D-TAP. People talk about TAP and they say, well, we are taking care of veterans who are disabled. In fact, they are not. D-TAP is a myth. It never existed, not back after Vietnam, it did not exist in the 1990s with the big drawdown, and it really doesn't exist today as a program that makes any sense that gets people on track and feeds them right into the programs at VA, particularly Voc Rehab. And that needs to happen and needs to be very effective.    I would also point out that it needs to be a much more transparent process that involves the veterans organizations in a major way. The development of TAP thus far, the VSOs were flat ignored and snubbed in terms of making any input. We don't claim to have purchase on truth with a capital ``T,'' but we know that folks in the bureaucracy don't either. And we do know a thing or two, those of us who have been around here for a year or two. My friends from IAVA think I started right after the Civil War, working in the Pension Building, but it is not true. It was a little bit later than that.</t>
   </si>
   <si>
@@ -217,9 +181,6 @@
     <t>412629</t>
   </si>
   <si>
-    <t>Mike Bost</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bost. Yeah, I would like to continue down, if I could, with the question on 1994.    First off, let me tell you that, one, in my former life I was a union firefighter. Two, I always worked very hard when I worked in a state for AFSCME and those that were under that union. But I have a question, because since having this job, a certain case came up. Let me ask this, because I don't know. I am new at this.    Could you please tell me the doctors that are hired for the VA, do they also fall under your protection on the unions?</t>
   </si>
   <si>
@@ -241,9 +202,6 @@
     <t>412318</t>
   </si>
   <si>
-    <t>Dina Titus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Titus. Thank you, Mr. Chairman. And thank you and the ranking member for having the hearing today, and also for including the legislation that I introduced, along with a former member of our committee, you heard from him earlier, Colonel Paul Cook of California. We worked together on this, and I was very pleased to do it.    Our bill, the Veterans Employment and Training Service Longitudinal Study Act, would require a longitudinal study for job counseling, training, placement services, so that we can better monitor the effectiveness of these programs.    And I heard several of you mention that you supported this, and I appreciate you offering some comments about how to make the bill work better. And I look forward to working with you on that and hoping that we can move it through this committee.    I would also like to go back and discuss H.R. 1994, VA Employee Accountable Act. We all are in agreement that those serving our veterans as well as public servants in every department need to be held at the highest level. But I have got some concerns about this legislation, like some of you do, that it is going to affect the VA's efforts to recruit and retain the most qualified employees.    Now, I know that the Secretary has prioritized recruiting the best and brightest to join the VA, and I think that is important. We don't want to do anything that ties his hands.    In Nevada, we have a hard time recruiting. We don't have a permanent director of the Reno RO. We have a hospital, brand new hospital without a permanent director. We have a hard time getting doctors to come to that hospital. So we just don't want to do anything that stops that process.    Mr. Gehrke, you mentioned in your testimony that the VA--you highlighted it, several of you mentioned it, but you highlighted it--that the VA needs to be able to quickly fill vacancies within the workforce. And you referred to the report that the VFW issued in September, ``Hurry Up and Wait.'' In this report you suggest that Congress examine ways to streamline the hiring process so that we can hire the best employees.    I wonder if you would share some of the details of that and maybe give us some concrete proposals of how we could do that, because I would like to work with you and the other VSOs on improving that process, and then I would ask them if they have any particular suggestions as well.</t>
   </si>
   <si>
@@ -265,9 +223,6 @@
     <t>412647</t>
   </si>
   <si>
-    <t>Kathleen M. Rice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Rice. you are recognized for 5 minutes.</t>
   </si>
   <si>
@@ -307,27 +262,18 @@
     <t xml:space="preserve">    Dr. Wenstrup. I want to now recognize our final panel of witnesses today. First, I want to welcome back Mr. Curt Coy, Deputy Under Secretary for Economic Opportunity at the U.S. Department of Veterans Affairs. And he is accompanied by Ms. Cathy Mitrano, Deputy Assistant Secretary for the Office of Resource Management at the U.S. Department of Veterans Affairs.    We also have Ms. Teresa Gerton, who is now the Acting Assistant Secretary for the Veterans' Employment and Training Service at the U.S. Department of Labor. And finally, we have Dr. Susan Kelly, Director of the Transition to Veterans Program Office in the Office of the Under Secretary of Defense for Personnel and Readiness at the U.S. Department of Defense.    I want to thank you all for being with us today.    Mr. Coy, if you are ready, then we will begin with you. And you will be recognized for 5 minutes as soon as you get settled.</t>
   </si>
   <si>
-    <t>Coy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Coy. Thank you, Mr. Chairman. And good afternoon, Mr. Chairman, Ranking Member Takano, and other members of this subcommittee. Thank you for the opportunity to be here today to discuss legislation pertaining to VA economic opportunity programs. Accompanying me today is Cathy Mitrano, Deputy Assistant Secretary for the Office of Research Management.    We are here to discuss several impactful bills. We will defer to our colleagues at Labor and Defense on those that pertain to their programs.    With respect to H.R. 2275, Jobs for Veterans Act, while we appreciate the committee's focus on improving employment and economic opportunity for veterans by consolidating various programs, VA does not support the bill. VA believes there is currently an appropriate management structure in place to oversee veteran programs in a collaborative environment.    VA is pleased, however, to see several bills that seek to improve our vocational rehabilitation and employment services to our wounded warriors and disabled veterans. We support the intent and purpose of most of the provisions of these bills and would like to work with the committee to ensure the bill language meets that intent. For example, a requirement to ensure voc rehab courses of education meet the same requirements as those for the GI Bill. We are currently doing so.    Less than 1 percent of voc rehab plans have courses that are not GI Bill approved, but there are occasional instances where veterans' requirements cannot be met with GI Bill courses. We agree that voc rehab housing modifications are best managed by our Specially Adaptive Housing grant experts in our Loan Guarantee Service, but the bill as written may not meet the intent or have unintended consequences.    VA supports the intent to prioritizing VRE services and currently tries to do just that through our IDES program and ensuring seriously and very seriously injured veterans receive VRE appointments within 10 days and have established plans within 30 days. Conducting a complete study, likely with contractor support and to include input from our various stakeholders, would certainly take time and resources.    VA supports and appreciates the intent of reducing redundancy and inefficiencies in the IT process for VRE claims. We are currently working with our Office of Information Technology for a new case management system. This effort would complement that effort subject to availability of appropriated funds.    Another bill would require VA to develop and publish an action plan for improving and in training and rehabilitation services for our VRE clients. While we support this effort, we believe we are currently focusing on these issues, and we would be happy to discuss some of those efforts.    With respect to the VA Accountability Act of 2015, VA will continue to work with the committee and VSOs on how the Secretary can best hold employees accountable while preserving the ability to recruit and retain highly skilled workforce that VA needs to best serve veterans.    VA supports the intent behind the Career-Ready Veterans Act; however, we do not support the bill as currently drafted and would be happy to work with the committee to ensure the language meets that intent. We agree that courses or programs of instruction should ensure students can meet the licensure and certification requirements of a state's particular vocation. If a veteran is using their well-earned GI Bill benefits to become a barber or a nurse, the program should prepare them to be obtain a barber certificate or a nursing license. We are ready to work with the committee to address any inconsistencies in that bill.    VA fully supports the workstudy program for a student veterans act that expands the program to those efforts previously expired in 2013 and extending the current expiration date.    Mr. Chairman, this concludes my statement. Thank you for the opportunity to appear before you today. We would be pleased to respond to any questions you or other members of the subcommittee may have. Thank you, sir.    [The prepared statement of Mr. Coy appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you, Mr. Coy.    Assistant Secretary Gerton, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Gerton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gerton. Good afternoon, Chairman Wenstrup, Ranking Member Takano, and members of the subcommittee. Thank you very much for the opportunity to participate in today's hearing. As Acting Assistant Secretary of the Veterans' Employment and Training Service at the Department of Labor, I appreciate the opportunity to discuss the Department's views on pending legislation and proposals impacting veterans.    While this hearing is reviewing several bills under consideration by the subcommittee, I will limit my remarks to the Job for Veterans Act and the Veterans Employment and Training Service Longitudinal Study Act.    The Jobs for Veterans Act of 2015 seeks to establish the Veterans Economic Opportunity and Transition Administration within the Department of Veterans Affairs and to transfer DOL's veterans programs to the VA. The administration does not support moving the Veterans' Employment and Training Service or its programs to VA.    The veterans employment services DOL provides are well integrated into the public workforce system that is overseen and funded by DOL and shifting these services to VA would weaken this connection. VETS is able to accomplish its mission by working closely with other parts of the Department, including the Employment and Training Administration, which administers numerous core employment and training formula programs.    Together, these DOL programs provide a unified and complementary approach to serving and protecting the reemployment rights of veterans and have operated together within the states for decades. We believe that moving vets to another agency will diminish the synergy gained through alignment of these programs with other Department of Labor employment and training programs, as well as those that protect the rights of servicemembers, veterans, and their families.    Further, DOL's connection with governor-appointed state or local workforce boards and state workforce agencies that oversee the nearly 2,500 American Job Centers across the Nation facilitates veterans' employment with large national employers, as well as those small and medium-sized businesses that do most of the hiring. Our long-established relationship with the state workforce agencies is a partnership that delivers proven and positive results.    The movement of veterans' employment programs and services from DOL to the VA would generate inefficiencies by removing existing employment programs and services for veterans from the national employment services network that already exists for all America's job seekers and workers.    Other significant changes are currently underway in the public workforce system as it affects education, training, and employment services for veterans and their families. The Workforce Innovation and Opportunity Act, signed into law last year, was the first legislative reform of the public workforce system in over 15 years. This transformational legislation, which passed by a wide bipartisan majority, reaffirmed the roles of the American Job Center system that served over 1.1 million veterans last year and brought together and enhanced several key employment, education, and training programs.    The Opportunity Act modernized the public workforce system to help job seekers and workers access the services they need to succeed in the labor market and match employers with the skilled workers they need to compete in the global economy.    The Opportunity Act also requires a new data reporting structure. Currently, reporting requirements are met through the state workforce agencies which are funded by DOL's Employment and Training Administration. The reporting system for veterans' employment outcomes is part of the Department's reporting regime for the workforce system. Any requirements to adjust or change collection of veterans' data under H.R. 2275 would require extensive coordination between two departments instead of two agencies in the same department. Further, requiring VA systems to integrate with the new labor reporting system is likely to generate tens of millions of dollars in additional costs.    The administration wants to ensure that we build on the established relationships and the improvements called for in the Workforce Innovation and Opportunity Act to modernize the public workforce system and American Job Centers to better help our transitioning servicemembers and veterans obtain family sustaining jobs. For this reason, the administration does not support any legislation that would undermine its progress or ability to help veterans and transitioning servicemembers achieve positive employment outcomes.    The Department does support the enactment of the Veterans Employment and Training Service Longitudinal Study Act, which would direct the Secretary to enter into a contract with a nongovernment entity to conduct a statistically valid longitudinal study of veterans and the job counseling, training, and placement services for veterans provided by the Department. However, we do have technical concerns enumerated in our written statement and look forward to working with the committee to address those issues.    Chairman Wenstrup, Ranking Member Takano, distinguished members of the subcommittee, this concludes my statement. Thank you for the opportunity to be part of this hearing, and I welcome any questions you may have.    [The prepared statement of Ms. Gerton appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Ms. Gerton.    Dr. Kelly, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. Chairman Wenstrup, Ranking Member Takano, and members of the subcommittee, I am pleased to appear before you today to discuss and share the Department of Defense's views relating to several pieces of proposed legislation.    Regarding H.R. 2133, which would amend section 1144 of Title 10, United States Code, the Department does not believe it is necessary. The current DoD policy provides servicemembers the opportunity to participate in all training tracks in addition to the core transition GPS curriculum. These training tracks are now offered at 206 military sites worldwide. The Department believes that further legislation to permit servicemembers to receive these specific training tracks would limit our flexibility to modify the training and education needed by transitioning servicemembers as the program evolves.    Regarding H.R. 2275, section 4, the Department believes that the best way to maintain an all-volunteer force is to demonstrate to potential recruits that servicemembers thrive when they return to the civilian workforce. One way to improve the likelihood of this is to ensure our servicemembers receive the best training possible on employment opportunities, resources, rights, and practices.    Since the passage of the Vow to Hire Heroes Act of 2011 and the redesign of the Transition Assistance Program, the Department has gained a greater appreciation for the value that the Department of Labor Employment Workshop provides our servicemembers. The Department of Labor's familiarity with the modern labor market, expertise in assisting with credentialing, licensing, and finding registered apprenticeships, and its connection to state labor offices makes it the single best organization in our Federal Government to provide labor-related services not only to our servicemembers, but to all American citizens.    The success of the DOL's Employment Workshop proves its value. On average, 91 percent of transitioning servicemembers who participate in a 3-day employment workshop say the training enhanced their confidence in transition planning, 93 percent said they will use what they learned, and 96 percent said the facilitators were knowledgeable about the material.    The Employment Workshop's emphasis on providing servicemembers early access to state-run American Job Centers is a critical factor in assisting our servicemembers in finding employment. Segregating veteran services and staff from the employment services available to the rest of the Nation is inefficient and potentially puts veteran reintegration into civilian life at risk.    Since the revised workshop began in 2012, the outlook for servicemembers transitioning to the civilian workforce has brightened every year. This is good news. But to best ensure continued progress, as well as to discover innovative ways to build what Secretary Carter has called the force of the future, DoD and DOL must continue to work together.    We would hope not to have diversions from that close work with DOL, as we strongly believe that it is the single-best organization in our Federal Government to provide labor-related services.    Regarding the draft bill that would amend Title 38, U.S. Code, the DoD believes that this draft bill appears to mirror several of the education proposals from the Military Compensation and Retirement Modernization Commission final report from January of 2015.    In response to that report, the DoD deferred comment until it has more data on the impacts of transferability on educational benefits on retention. Similarly, the Department stated on May 13 in testimony to the Senate Committee on Veterans' Affairs that without data enabling the Department to understand the potential effects on retention the Department cannot support a bill that changes the Post-9/11 GI Bill housing stipend for dependents or the proposed language to increase the eligibility requirements for transferring Post-9/11 GI Bill benefits.    To this end, the Department has sponsored a study with Rand to review educational benefits for servicemembers to include the benefits of the Post-9/11 GI Bill and the impacts on retention with a focus on impacts of transferability. We anticipate the study to be completed in the summer of 2016.    Regardless of the outcomes of the study, the Department strongly believes that those servicemembers who have already committed to additional service obligations should be grandfathered and their dependents should not be subject to any reduction in transferability that may be imposed by further legislation. The Department defers to the VA regarding any costs to this bill.    Mr. Chairman, I thank you and the members of this subcommittee for your outstanding and continuing support for the men and women who proudly wear the uniform in defense of our great Nation.    [The prepared statement of Ms. Kelly appears in the Appendix]</t>
   </si>
   <si>
@@ -347,9 +293,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coy. If I may, Mr. Chairman, I would like to ask Ms. Mitrano to address that specific question.</t>
-  </si>
-  <si>
-    <t>Mitrano</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Mitrano. Thank you.    Well, first of all, I don't think that we differ with the President's statement or this committee's stated desire for accountability within VA. Certainly, we are all about trying to hold people accountable for those unethical and those egregious-type conduct actions that we have seen displayed. However, this piece of legislation extends to all of the GS employees throughout VA, and it is targeted at VA only, it is not a government-wide reform of course. And we believe it simply is going a bit too far when it comes to the due process depravations to that broad a group of employees.</t>
@@ -916,11 +859,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -940,13 +881,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -968,11 +907,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -992,13 +929,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1018,13 +953,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1046,11 +979,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1070,13 +1001,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1098,11 +1027,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1122,13 +1049,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1148,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1174,13 +1097,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1202,11 +1123,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1226,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1254,11 +1171,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1278,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1306,11 +1219,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1330,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1358,11 +1267,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1382,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1410,11 +1315,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1434,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>43</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1462,11 +1363,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1486,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1514,11 +1411,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1538,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>49</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1564,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>49</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1592,11 +1483,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1616,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1644,11 +1531,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1668,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>49</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1696,11 +1579,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1720,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>43</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1748,11 +1627,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1772,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1798,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1826,11 +1699,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1850,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1876,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1902,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1930,11 +1795,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1954,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
-      </c>
-      <c r="G42" t="s">
-        <v>67</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1980,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>43</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2006,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" t="s">
-        <v>67</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2032,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>43</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2058,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G46" t="s">
-        <v>67</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2086,11 +1939,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2110,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" t="s">
-        <v>75</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2136,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2162,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
-      </c>
-      <c r="G50" t="s">
-        <v>75</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2190,11 +2035,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2214,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2242,11 +2083,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2266,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
-      </c>
-      <c r="G54" t="s">
-        <v>83</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2292,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>82</v>
-      </c>
-      <c r="G55" t="s">
-        <v>83</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2318,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>43</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2344,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>82</v>
-      </c>
-      <c r="G57" t="s">
-        <v>83</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2370,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>43</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2396,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>49</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2422,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
-      </c>
-      <c r="G60" t="s">
-        <v>83</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2448,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>49</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2474,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>82</v>
-      </c>
-      <c r="G62" t="s">
-        <v>83</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2500,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>49</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2526,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
-      </c>
-      <c r="G64" t="s">
-        <v>83</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2554,11 +2371,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2580,11 +2395,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2604,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2632,11 +2443,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2656,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>100</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2684,11 +2491,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2708,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>103</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2736,11 +2539,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2760,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>100</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2788,11 +2587,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2812,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>100</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2840,11 +2635,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2864,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2890,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2918,11 +2707,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2942,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2970,11 +2755,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2994,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3022,11 +2803,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3046,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3072,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>103</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3098,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3124,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>103</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3150,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3176,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>103</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3202,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3228,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3254,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3280,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3306,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3332,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3358,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3384,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3410,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3436,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3462,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3488,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3514,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3540,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3566,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3592,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3618,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3644,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3670,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3696,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3722,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3748,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3774,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3800,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3826,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3852,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3880,11 +3595,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3904,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>82</v>
-      </c>
-      <c r="G117" t="s">
-        <v>83</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3930,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3956,13 +3665,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>82</v>
-      </c>
-      <c r="G119" t="s">
-        <v>83</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3982,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4008,13 +3713,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>82</v>
-      </c>
-      <c r="G121" t="s">
-        <v>83</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4034,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4060,13 +3761,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>82</v>
-      </c>
-      <c r="G123" t="s">
-        <v>83</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4086,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4112,13 +3809,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4138,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>82</v>
-      </c>
-      <c r="G126" t="s">
-        <v>83</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4164,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4190,13 +3881,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>82</v>
-      </c>
-      <c r="G128" t="s">
-        <v>83</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4216,13 +3905,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4242,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>82</v>
-      </c>
-      <c r="G130" t="s">
-        <v>83</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4268,13 +3953,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4294,13 +3977,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>82</v>
-      </c>
-      <c r="G132" t="s">
-        <v>83</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4322,11 +4003,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4346,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4374,11 +4051,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4400,11 +4075,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4426,11 +4099,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98640.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98640.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412564</t>
   </si>
   <si>
+    <t>Wenstrup</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Good afternoon, everyone. The subcommittee will come to order.    Before we begin, I would like to ask unanimous consent that our colleague Chairman Miller be allowed to sit at the dais, to make opening statements, and ask questions.    Hearing no objection, so ordered.    I want to thank you all for joining us here today to discuss legislation pending before the subcommittee concerning education benefits, employment programs for our returning servicemembers and veterans, as well as accountability at the Department of Veterans Affairs.    This afternoon, we have nine important pieces of legislation before us.    I will focus my remarks on one of these bills, which I introduced earlier this year, H.R. 2344, the Veterans Vocational Rehabilitation and Employment Improvement Act of 2015, as well as the draft bill that is on the agenda.    VA's Vocational Rehab and Employment, VR&amp;E, program exists to help disabled veterans become employment-ready or to assist the most severely disabled reach a point of maximum independent daily living. For years, we have heard from veterans and VSOs that the time it takes to complete a rehabilitation plan from the time of application to full rehabilitation is too long. And they have also said that the caseload for counselors is too high, which then doesn't allow the counselor to appropriately help each client.    According to VA, on average, veterans spend anywhere between 5 to 10 years in the program--which, if that is how long it takes to rehabilitate some of these veterans, then that is understandable, but I fear that this extended length of time could also be due to an overworked system, a large caseload per counselor, and reliance on a primarily paper-based processing system.    H.R. 2344 is aimed at ensuring veterans are receiving thorough and diligent assistance from their counselors and that they are provided the best resources possible to get them back to an employment-ready status or to a position where they are able to live independently on their own. Our disabled veterans, who have sacrificed so much, deserve to have a fulfilling life following their service.    This bill would require that if a veteran is pursuing a course of education or training through VR&amp;E that the program be approved for GI Bill benefits. Under current law, if a veteran is going to school through Voc Rehab, that school does not need to be approved by VA and the State approving agencies for GI Bill benefits.    Programs will have a year following enactment to come into compliance with these rules. But I hope that this will increase oversight, and ensure that there aren't any so-called fly-by-night schools taking advantage of our disabled veterans.    My bill would also change the law so that if a veteran is doing any adaptations to their home through VR&amp;E that those changes be made under the rules already existing for specially adapted housing grants and by their employees, as opposed to the veteran's Voc Rehab counselor overseeing the changes. This accomplishes two things: gets these counselors out of the business of making home construction decisions and instead allows them to focus on their primary goal, to rehab the veteran; and ensures that experts who deal with home adaptations on a daily basis are now the ones handling oversight of these projects so we can ensure veterans are getting the best outcomes in their homes.    My bill would also encourage and authorize the Secretary to prioritize VR&amp;E services based on need so that the VA can take into account things such as disability ratings, severity of employment handicaps, income, and other factors as the Department and its counselors are managing their ever-growing caseload. This provision is not to push any veterans out of the program but would be there to allow VA to prioritize the most disabled and employment-handicapped veterans as they seek VR&amp;E services.    Lastly, H.R. 2344 would require the Secretary to reduce redundancies and process all VR&amp;E claims and payments in a paperless system, and it authorizes $10 million to upgrade their IT systems to make the change. VR&amp;E has told us that they are currently in the process of updating their systems and that they have received authorization and funding for this upgrade. However, we have seen in the past that this money can easily be shifted elsewhere at any point. Shifting Voc Rehab to a paperless system will speed up the application process, increase efficiency, and assist in a quicker rehabilitation timeline for veterans in the program.    I do believe VR&amp;E is constantly improving, and I appreciate the work the VR&amp;E service director, Jack Kammerer, and his employees do on a daily basis. And the purpose of this bill is to assist them in their critical mission for disabled veterans.    Lastly, today, we will also be discussing a draft bill that deals with GI Bill transferability issues. The draft came from recommendations made by the Military Compensation and Retirement Modernization Commission earlier this year. The draft would change the service time requirement to be eligible to transfer GI Bill benefits to dependents to 10 years, with an additional 2-year commitment. Currently, the time requirement is 6 years, with an additional 4-year commitment.    The draft bill would also reduce the monthly living stipend that transferees receive by half of its current rate. The commission recommended cutting the living stipend completely for dependents. However, I do think that there should be some amount of a stipend to be given to transferees, as that is in many cases also a benefit to their spouse or parent who served and transferred them this benefit.    If we are to move this bill forward, I would commit to using the savings from these changes to improve GI Bill benefits or other programs for veterans, which I think we can all agree is important.    With that being said, I am eager to discuss each of the nine pieces of legislation before us today. And I am grateful to my colleagues who have introduced these bills and to our witnesses for being here to discuss them with us, and I look forward to a productive and meaningful discussion.    I will now yield to my colleague, Ranking Member Takano for any opening statement he may have.</t>
   </si>
   <si>
     <t>412520</t>
   </si>
   <si>
+    <t>Takano</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman.    As we gather today, I just want to take a moment to thank you, Chairman Wenstrup, for conducting the Economic Opportunity Subcommittee in such a productive, positive, and bipartisan manner in this Congress. You have led the EO Subcommittee so that it has become the most productive of the four House Veterans' Affairs Committee subcommittees thus far in the 114th Congress. Under your leadership, we have conducted a legislative hearing and a markup under regular order, and we have forwarded 11 bills favorably to the full committee with unanimous bipartisan support. Five of our bills have actually passed the House.    I particularly want to also congratulate my colleague, who is not here, Miss Rice, on seeing her very first piece of legislation pass the House, H.R. 1382, the BRAVE Act.    So, on this high note, today we begin our second round of legislative hearings with nine bills before us. I have introduced two of these bills: H.R. 2360, the Career-Ready Student Veterans Act, and H.R. 2361, the Work-Study for Student Veterans Act. I am very grateful that both enjoy bipartisan support.    The first, H.R. 2360, the Career-Ready Student Veterans Act, ensures that career education programs designed to prepare our student veterans for entry into the workforce are actually doing so. The bill would mandate that programs meet certain requirements in order to be eligible to receive GI Bill benefits.    Currently, education programs can be eligible for GI Bill benefits even if they lack proper accreditation or do not meet State licensure or certification requirements. This means that veterans can use their hard-earned education benefits to attend programs that do not prepare them for a career in their field of study. H.R. 2360 would change this policy so that student veterans could only use their GI Bill benefits at education programs that meet proper accreditation, licensure, and certification requirements.    Now, the Department of Defense already has this policy in place to protect servicemembers using tuition assistance benefits. It only makes sense that Congress should protect student veterans in the same way.    I am very proud to say that H.R. 2360 enjoys clear bipartisan support, and I urge my colleagues to consider supporting the bill as we listen to the testimony today.    My second bill, H.R. 2361, the Work-Study for Student Veterans Act, reinstates certain Department of Veterans Affairs student work-study activities that expired on June 30, 2013.    Through the VA's Student Work-Study Allowance Program, qualifying student veterans in college degree programs or vocational or professional programs are paid to work in a variety of capacities on campus at VA facilities or at other veterans-centered organizations to assist fellow veterans.    The work-study program achieves two important goals: offering student veterans a way to earn a little extra money, and providing transitioning veterans with the guidance and assistance of fellow veterans who know firsthand what the transition is like.    Unfortunately, the 113th Congress in the Senate failed to act on H.R. 1453, the Work-Study for Student Veterans Act, which passed the House and would have extended the authorization for several qualifying VA work-study activities.    I hope my colleagues will join me in support of this bill as we go forward. I hope we might hear from the VA today that they would like to see this program made permanent.    Now, there is a lot on the agenda, and I don't want to take up too much time here, but I do appreciate all of our witnesses for being here today, and I look forward to their testimony.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -67,6 +82,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Miller</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Miller. Thank you very much, Chairman Wenstrup, Ranking Member Takano. I appreciate the opportunity not only to sit at the dais today but also to present a couple of pieces of legislation for your consideration today. I also appreciate the fact that you are allowing me to speak before Colonel Cook.    Sir.    I want to focus on the two bills that you talked about, H.R. 1994 and the VA Accountability Act of 2015. It provides the Secretary of the Department of Veterans Affairs with yet another tool to remove any VA employee for poor performance or misconduct. And the provision is simply an extension of the same authority that we passed last summer in the Choice Act to remove senior executives.    To prevent retaliation, the bill would protect whistleblowers by not allowing the Secretary to use this authority on employees who have filed a complaint with the Office of Special Counsel. This provision is critically important as we continue to uncover many instances of whistleblower retaliation, and the last thing I want is for this new provision that is meant to hold bad employees accountable to instead harm legitimate whistleblowers.    Now, additionally, this bill would require that all probationary periods for new VA employees last for at least 18 months instead of the current period of 1 year. It would also give the Secretary the authority to extend this probationary period as he or she would see fit. The provision was at the suggestion from Partnership for Public Service, a good government think tank, and will give VA supervisors more flexibility to determine new employees' performance before they actually become a permanent employee of the Department. I would also note that most medical professionals in VA are already required to complete a 2-year probationary period.    Finally, the bill would require that the Government Accountability Office would conduct a study of VA time, space, and resources devoted to labor union activities.    Some have said that this bill is nothing but a partisan attack against hardworking VA employees. This could be no further from that particular truth. As I have stated from day one, I believe that 99 percent of VA's more than 300,000 employees are dedicated and hardworking and are not part of the problem that exists at VA today.    The true problem is that, more than a year after enduring the biggest scandal in VA history, in which 110 VA facilities allegedly maintained secret lists to hide wait times, the Department has fired only one for wait-time manipulation--just one person. Even worse, rather than disciplining bad employees, VA often just transfers them to other VA facilities or puts them on paid administrative leave for months on end as they receive their full salary and waste taxpayer dollars.    Whether it is Philadelphia, Reno, Nashville, Phoenix, or a plethora of other facilities, VA's tradition of transferring problem workers, putting them on paid leave, or simply allowing them to go virtually unpunished continues because current civil service rules make it nearly impossible to hold bad employees accountable. One of the reasons I know this is because high-ranking officials at VA, people who work directly for the Secretary, have told me, in fact, that this is the case.    In a hearing last month, Deputy Secretary Gibson also said it was too hard to fire employees at VA. In one instance, the Office of Inspector General completed a well-documented report proving one employee's blatant disregard for government regulations and rules. And, in this report, the IG recommended that the employee pay back tens of thousands of dollars in wasted time, wages, and travel fees which the employee had basically stolen during his time as a VA employee. Furthermore, the IG recommended that VA take administrative action against the employee.    So what did VA do with this report and the recommendations that were contained in it? Well, they reached a settlement agreement with the employee which only required the individual to pay back one-third of the amount of money the IG said the employee owed, allowed the employee to resign as opposed to being fired from VA, expunged all documentation from his official record regarding his misconduct during his time as a VA employee, and required VA to pay the employee several thousands of dollars to cover his attorney's fees he incurred during VA's investigation and their settlement.    We have asked the Department whether this employee has indeed paid back the amount he owed, and, although we are still awaiting a response, I have a sneaking suspicion that he has yet to pay back a single dime that was owed.    I am sure many people would be shocked to learn about the incident I just described and will wonder why VA just didn't do the right thing and fire this individual as well as collect the money that he owed the government. Well, the answer to that question lies in this chart that is going to be placed up on the screens that was part of a GAO report on the civil service from earlier this year. And you also have it in your binder.</t>
   </si>
   <si>
@@ -76,12 +94,18 @@
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you, Chairman Miller. And I appreciate your deep dive into these issues. I think it is unfair not only to our veterans but to the thousands of good VA employees that there they are, devoted to the veteran, and we have those that take advantage of working in the system. I appreciate your testimony.    It is an honor today to be joined by our colleagues Colonel Paul Cook of California and Mr. Sean Maloney of New York at the witness table today. And I understand Mr. Flores will be here shortly.    Mr. Flores and Colonel Cook used to serve on this committee, and Mr. Flores used to be the chairman of this subcommittee last Congress. So I am sure it is a little bit of a different view for him when he gets here and sits at the witness table.    But I thank all three of you for being here.    Colonel Cook, you are now recognized.</t>
   </si>
   <si>
+    <t>Cook</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cook. Thank you, Mr. Chairman.    It was no problem yielding to Chairman Miller. It was a little bit disconcerting to see that when he was giving the definition of ``insanity'' he looked over at me. I don't want to read into it.    Anyway, my bill, H.R. 832, ensures that veterans are receiving effective and successful employment training services.    This bipartisan bill authorizes an independent organization to collect and analyze data on the effectiveness of the Department of Labor's Veterans' Employment Training Service. The study will focus on veterans who have received intensive services from two programs under VETS: the Disabled Veterans Outreach Program and the Local Veterans Employment Representatives Program.    Disabled Veterans Outreach Program specialists provide job training for veterans, with special emphasis on veterans with service-connected disabilities. These specialists help veterans to be competitive in the labor market. They focus on veterans who are economically or educationally disadvantaged, including homeless veterans and veterans with barriers to employment. Local veterans employment representatives conduct outreach to employers and focus on increasing and promoting the hiring of veterans.    The study will track the employment status of veterans who have received these services, determine if the program contributed toward their employment, monitor the employment retention rate, and determine if the services provided helped them increase their average earnings. A report on the findings will be presented to the Committee on Veterans Affairs in the House and Senate every year for the next 5 years.    Congress owes it to our veterans to provide them with the best employment services possible. Simply authorizing these programs isn't enough; we have to follow up and ensure they are working as intended. We saw at the VA what happens when the bureaucracy isn't subject to vigorous oversight. If we are going to authorize these programs to boost veteran employment, Congress has the duty to ensure that they are working.    You know, we have talked about this over and over again. Before I finish up, I do want to thank Congressman Costello and Congresswoman Titus for cosponsoring this bill.    The bottom line is that, with the military and veterans, we have a responsibility to take care of the troops. If a program is there to provide a certain function or mission, we have to make sure it is working; if not, get rid of it or change it. We owe that much to our veterans.    Thank you very much for letting me present this bill.</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you, Colonel Cook.    Mr. Maloney, you are now recognized.</t>
   </si>
   <si>
+    <t>Maloney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Maloney. Thank you, Mr. Chairman. It is an honor to be here with all of you and with my colleague Colonel Cook. He and I had the opportunity to lay a wreath at the Tomb of the Unknown Soldier just last week. I stood and watched while he performed that difficult duty in the rain.</t>
   </si>
   <si>
@@ -94,42 +118,63 @@
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Maloney.    And I thank you both for bringing forth these bills and speaking on them at today's subcommittee hearing.    Unless there are any questions for our colleagues, you are now excused.    I now invite our second panel to the table: Mr. Paul Varela, the assistant national legislative director for Disabled American Veterans; Mr. Brendon Gehrke, senior legislative associate for the National Legislative Service at the Veterans of Foreign Wars of the United States; Mr. Steve Gonzalez, assistant director for the Veterans Employment and Education Division at the American Legion; Mr. David Borer, general counsel for the American Federation of Government Employees and AFL-CIO; Mr. Christopher Neiweem, legislative associate at the Iraq and Afghanistan Veterans of America; and, finally, Mr. Rick Weidman, executive director for government affairs at the Vietnam Veterans of America.    I thank you all for being here, your service to our Nation in uniform, and for your hard work and advocacy for veterans.    Mr. Varela, we will begin with you, and you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Varela</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Varela. Good afternoon, Chairman Wenstrup, Ranking Member Takano, and members of the subcommittee. DAV appreciates the opportunity afforded to us today to testify at today's legislative hearing.    For the following bills--H.R. 832, 2360, 2361--and the draft bill regarding the transfer of unused educational assistance benefits under the Post-9/11 GI Bill, DAV has no resolution from our members pertaining to the issues identified within these bills but would not oppose passage of the legislation. For the remaining bills, we would like offer our views and, in some cases, our recommendations.    H.R. 356 contains several provisions, one of which would require the Secretary of VA to perform an analysis and make recommendations in a report to Congress to encourage Post-9/11 GI Bill-eligible veterans to use Vocational Rehabilitation and Employment, VR&amp;E, benefits and services. We have no resolution from our membership regarding this issue.    DAV would not oppose the bill's passage; however, encouraging veterans with eligibility under Post-9/11 GI Bill to instead use VR&amp;E benefits and services will require additional resources in VR&amp;E to meet increased demand. VR&amp;E's current counselor-to-client ratio remains high, which contributes directly to delays in delivering timely and effective services.    DAV and our independent budget partners have recommended a more practical counselor-to-client ratio of 1 to 125. To achieve this ratio in fiscal year 2016, VR&amp;E would require an additional 382 full-time-employee equivalents, FTEE, 277 dedicated as VR&amp;E counselors, and the remaining 105 employees dedicated towards support services, bringing VR&amp;E's total FTE strength to 1,824.    DAV calls on Congress to increase staffing levels within VA's VR&amp;E program in accordance with our National Resolution No. 052. If Congress intends to encourage increased use of VR&amp;E by Post-9/11 GI Bill-eligible veterans, then adequate resources will be essential to strengthen this critical program to meet the demand.    H.R. 1994 would provide the VA Secretary with the authority to remove or demote employees based on performance or misconduct. We have no resolution from our membership on this topic and take no position on this bill.    H.R. 2133 would provide additional training options under the Transition Assistance Program, now TAP GPS, to members of the Armed Forces separating from Active Duty. The Secretary of Defense and Homeland Security would be required to provide additional training opportunities to these servicemembers. In accordance with DAV Resolution No. 053, we support this bill. Expanding training opportunities to these separating servicemembers will only help to better their chances of success when competing within the civilian job market.    H.R. 2275 would establish within VA a new Veterans Economic Opportunity and Transition Administration. It would improve employment and educational opportunities for veterans by consolidating various VA programs now managed by the Veterans Benefits Administration and also transfer veteran-focused programs from Department of Labor to VA.    Mr. Chairman, DAV previously testified before this subcommittee on February 12, 2015, regarding this very issue and encouraged Congress to introduce and enact this proposal. We are pleased to support this bill, consistent with DAV Resolution No. 227.    Consolidation has the potential to streamline and enhance economic and employment prospects for wounded, injured, and ill wartime veterans and provide them with meaningful and gainful opportunities. Ensuring these veterans and their families have optimal, seamless access to employment and economic prospects and services is a central concern of our organization. In the wake of war, we believe that we reflect the concerns of the entire Nation. DAV welcomes the opportunity to work with this subcommittee to see this justified reform enacted into law, and DAV thanks the sponsor for introducing this bill.    H.R. 2344 seeks to make improvements within VA's VR&amp;E program that would affect the approval of courses pursued under VR&amp;E, eligibility for special adapted housing, and new authority to prioritize VR&amp;E services based on need for program participants, and a $10 million authorization for related information technology enhancements.    DAV has no resolution from our membership on the particular issues identified within this bill but would not oppose passage of the legislation. However, we would recommend adding three additional reporting requirements: first, a report that captures information pertaining to the disapproval of courses under VR&amp;E that fail to meet the approval standards set forth within the Montgomery GI Bill and Post-9/11 GI Bill programs; second, a report that collects information relative to the number of waivers seeking course approval and the disposition of any waiver requests; and, third, a report capturing information regarding need-based prioritizations.    Chairman Wenstrup, Ranking Member Takano, and members of the subcommittee, this concludes my testimony, and I am prepared to answer any questions you may have.    [The prepared statement of Paul R. Varela appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you very much.    Mr. Gehrke, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Gehrke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gehrke. Chairman Wenstrup, Ranking Member Takano, and members of the subcommittee, thank you for allowing me to present the VFW views on the pending legislation.    The VFW supports the intent of H.R. 356; however, we suggest that the Congress take a different approach. We share the concern that VR&amp;E may not be able to serve the veterans who need it most if Congress does not make changes to the current system. However, we are doubtful that a VA action plan will remedy VR&amp;E's access issues and may unnecessarily burden an already overworked agency. Instead, Congress should fund the longitudinal study that it authorized in the Veterans Benefits Improvement Act of 2008 so that VA can identify problems and modify VR&amp;E to better serve veterans.    To better understand the veteran hiring experience, the VFW supports H.R. 832, and we urge the committee to appropriately fund the study.    The VFW strongly supports H.R. 1994, Chairman Miller's VA Accountability Act of 2015. We believe that VA and Congress must collaborate to identify and fix what is broken within VA, must hold employees accountable, and must do everything possible to restore veterans' faith in their VA.    In addition, we urge the committee to take a multidimensional approach to tackling issues with VA's human resource practices. The VFW is concerned with whistleblower retaliation, VA's hiring process, and the sinking morale of VA employees. A Federal survey shows that less than 50 percent of VA employees feel that arbitrary action, personal favoritism, and coercion for partisan political purposes is not tolerated. Also, VA employee satisfaction scores fell in 76 out of 84 measures within the last year.    With low morale comes a high price tag. The Gallup organization estimates that millions of disengaged employees cost the American economy as much as $350 billion per year in lost revenue as a result of low employee morale. VA can't afford to lose time and money from poor hiring practices or low employee morale. We fear that VA's workforce productivity could further decline due to staffing shortages and low employee morale if VA cannot attract and keep high-achieving employees.    We believe that, in order to help foster a culture of accountability, Congress should include language in the bill to prevent whistleblower retaliation and provide VA with additional resources to recruit, train, and retain the best employees.    The VFW supports H.R. 2275. The VFW supports this bill because it can protect veterans job programs from sequestration, better ensure that veterans job programs receive proper congressional oversight, and improve veterans' access to job programs by streamlining government services. Also, Congress must ensure that Veterans' Employment Training Services is always properly funded no matter what agency has authorization over the program--or authority over the program.    The VFW supports H.R. 2344, except section 4. Section 4 requires VA to prioritize certain disabled veterans over other disabled veterans for access to VR&amp;E programs. The VFW believes that no veteran should have to wait or be denied the VA services that they have earned.    This provision calls for VA to manage to a budget instead of the need. As we have recently witnessed, this tactic leads to veterans being denied care and services they need to maintain a healthy life and provide for their families. We cannot allow this to happen again, and Congress must fully fund all of VA and expand VR&amp;E resources so they can better provide employment services to disabled veterans.    The VFW supports H.R. 2360 to ensure schools who are eligible for the GI Bill are offering programs that award student veterans with proper programmatic accreditation that meets veterans' and employers' expectations.    Unfortunately, some schools offer degrees that do not provide graduates the needed credentials to qualify for the professions within their field of study. Worse yet, when asked, many of these schools offer prospective students unclear information about programmatic accreditation and their requirements for professional certification.    This is not a wise use of taxpayer dollars, it allows students to use money, whether it comes from military tuition assistance or the GI Bill, for degrees that will not result in more veterans being employed.    The VFW supports H.R. 2361.    Regarding the draft bill language, the VFW played an integral role in passing the Post-9/11 GI Bill, and we have a vested interest in ensuring the long-term viability of veterans education programs. The GI Bill's primary use should be to help veterans reintegrate into civilian life by providing the education and skills necessary to gain meaningful employment.    And the retention aspect should never provide a greater benefit to dependents than it does to wartime veterans. Therefore, any reduction of certain elements in the GI Bill must include increases for those who need it most. The committee should concentrate on closing gaps in the Fry Scholarship and improving the benefit to Guardsmen and Reservists who deployed overseas in defense of our country, especially those who are recovering from wounds or injuries incurred on Active Duty.    This concludes my remarks, and I look forward to answering any questions the committee may have.    [The prepared statement of Brendon Gehrke appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you, Mr. Gehrke.    And before we go to Mr. Gonzalez, I would like to pause for a second to recognize Mr. Flores of Texas and give him an opportunity to share his remarks on his bill, H.R. 2133.</t>
   </si>
   <si>
+    <t>Flores</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Flores. Okay. Thank you, Chairman Wenstrup and Ranking Member Takano. It is great to be back in this esteemed committee today.    I am here today to testify in support of my bill, H.R. 2133, the Servicemembers' Choice in Transition Act. I introduced this legislation during the 113th Congress as the former chair of this subcommittee and was pleased to see it pass through the subcommittee last Congress.    The Servicemembers' Choice in Transition Act is meant to enhance the Transition Assistance Program, or TAP, that was required for all separating servicemembers in the VOW to Hire Heroes Act of 2011. TAP is a joint DoD, DoL, and VA program that provide training to servicemembers about veterans benefits, job search skills, pre-separation counseling, resume writing, interview preparation, and other transition training.    The bill would modify TAP to enable those leaving military service to attend the additional 2-day in-depth informational tracks that are currently optional. These three tracks cover career technical training, entrepreneurship opportunities, and access to higher education.    As I said before, the VOW to Hire Heroes Act required mandatory attendance at TAP for all but a few servicemembers. However, it is currently not mandatory for base commanders to allow servicemembers to attend these three tracks. Unfortunately, by not requiring these tracks, DoD's model for TAP falls short in providing sufficiently detailed information for transitioning servicemembers and preparing them for civilian life. The Post-9/11 GI Bill, for example, is a very generous benefit and could be worth well over $250,000 to a veteran over 4 years. So it is important that the veteran is fully briefed on what that benefit can provide in the long run.    Furthermore, if a veteran was planning to go to college and use their Post-9/11 benefits, the education track would help them decide whether they are even ready for postsecondary education and/or what school best fits their needs. If they are not ready for school, then the education track gives a veteran an opportunity to be briefed on how to get ready, on how to set their education or training goals, on how to find out what schools would best meet their education or training goal, and on how to complete the admissions process, and, finally, how to finance their education or their training.    The importance of educating transitioning servicemembers before they use their GI Bill benefits was further highlighted and recommended to be mandatory for those who want to use their benefits in the recent 2015 Military Compensation and Retirement Modernization Commission report.    I believe that H.R. 2133, in making the optional tracks mandatory, would play an instrumental role in filling the gap as servicemembers transition from Active Duty to civilian life, while also giving the military services flexibility to meet those requirements. We owe it to our veterans to ensure that their transition into the workforce is as smooth as possible. By modifying the required contents of TAP, we are offering our servicemembers alternative training paths to better suit their intentions and to provide them with the tools for successful transition into civilian life.    Again, I want to thank the subcommittee for their time and support today. I also want to thank all the veterans service organizations that have shown support for this legislation in the past and today. And I urge passage of 2133.    And I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you, Mr. Flores.    We will now continue on with the panel.    And, Mr. Gonzalez, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gonzalez. Thank you, Mr. Chairman.    Good afternoon, Mr. Chairman and Ranking Member Takano, members of the subcommittee. Thank you for this opportunity to allow me to present the views of the American Legion, America's largest wartime veterans service organization, on several pieces of legislation being considered by the committee today.    Due to allotted time available, I will concentrate on three of the bills. First, I will address H.R. 832, the Veterans Employment and Training Service Longitudinal Study Act of 2015.    The American Legion would support a longitudinal study of the job counseling, training, and employment placement services, JVSG services, only if the bill were altered to direct the Secretary of Veterans Affairs to contract for this study as opposed to the Secretary of Labor.    In 2012, a similar proposal was made to study the Department of Labor employment services. At this time, Chairman Miller has stated more study was not needed and, quote, ``We have already study after study over the years that say the program does not work.'' The American Legion agrees with the chairman's assessment. A longitudinal assessment of the Department of Labor VETS performance can already be read in the 16 GAO and OIG reports dating back to 1997. All reports reveal negative findings.    Therefore, such a detailed study would be better implemented after JVSG and the HVRP are moved to VA and set under the purview of the Secretary of Veterans Affairs. The American Legion supports this legislation.    Next, I will address H.R. 2275, Jobs for Veterans Act of 2015.    The American Legion has long supported the Department of Labor Veterans Employment and Training Services, or better known as DOL-VETS. Unfortunately, the good faith of the veterans in this program have been rewarded with ongoing program management problems, including a lack of accountability.    Department of Labor's budget request makes it painfully clear that the agency with the monumental task of helping Americans to be gainfully employed is unable to give the proper attention to veterans employment issues that our constituents deserve.    At this juncture, the American Legion believes that the best way to improve DOL-VETS is to transfer the Jobs for Veterans State Grants and the Homeless Veterans Reintegration Portion of the program to VA. Though there is a place for a veterans office within Department of Labor, the American Legion believes these two programs would be better served if they were located in a new administration consolidated under the VA.    Lastly, I will address H.R. 2360, the Career-Ready Student Veterans Act.    Institution accreditation is typically done by regional and national accreditation bodies. Programmatic accreditation is for specific programs offered within an educational institution. Programs are typically accredited by specialized organizations. By not having the program accredited by the appropriate body, the individual does not make effective use of the GI Bill benefit if an individual uses the benefit to prepare for a license or certification occupation but the program does not meet the licensure requirements.    The American Legion will urge the Congress apply this requirement equally to all institutions of higher learning as well as nonaccredited schools. We also urge Congress also include all deemed approved degree programs and assure that the State approving agencies can have adequate oversight of all institutions of higher learning if we are to implement this piece of legislation.    The American Legion does have two questions or concerns.    One, does the proposed legislation only cover meeting the licensure or certification standards in the respective State where the institution is located? If that is the case, it is troubling for those veterans who do not plan to practice in the State where the school is located or individuals taking distance learning courses. The legislation should make clear who would determine the requirements for these programs or approval in all the States.    And then the last, number two: If the intent of the Congress is to add to the existing workload of the State approving agencies, which are already spread thin, then the Congress should give great consideration and reevaluation of the existing budget of the SAAs, to include increasing such budgets to ensure that the SAAs are able to meet their current workload as well as the possibility of this new add-on.    Thank you, Mr. Chairman, Ranking Member Takano.    And I will yield my time, Mr. Chairman.    [The prepared statement of Steve Gonzalez appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you very much.    Mr. Borer, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Borer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Borer. Chairman Wenstrup, Ranking Member Takano, and members of the subcommittee, thank you for the opportunity to testify today.    AFGE's National VA Council represents more than 220,000 VA employees. We strongly oppose H.R. 1994 as currently drafted and urge lawmakers to reject these counterproductive measures in favor of AFGE recommendations, including expanded whistleblower protections that would truly hold VA managers accountable and protect our veterans.    Presented as accountability for SES and upper management, the greatest target in this extreme bill is the 350,000 nonmanagement employees of the VA, including service-connected disabled veterans who clean operating rooms, maintain VA cemeteries, and rate disability claims and their coworkers, who are PTSD therapists, surgeons, bedside nurses, and so on.    Stripping job protections from nonmanagement employees will increase the mismanagement in the form of retaliation, discrimination, patronage, and antiveteran animus. The result will be to chill disclosures, destroy employee morale, and undermine the retention of the VA's most experienced and valuable employees.    This bill proceeds from the false premise that it is too hard to remove a Federal employee under the current system. On the contrary, nothing in the current law prevents agencies from removing employees. Competent and responsible managers can and do remove poor performers and employees who engage in misconduct, and they do not unfairly target good employees. And, for the record, Federal employees stop getting paid as soon as they are terminated.    Under section 2, all VA employees, including even GS-4 housekeepers or cemetery caretakers, would lose fundamental rights to notice and to be heard, including 30-days advance notice of an adverse action, 7 days for an employee to respond, an employee representative, a written decision, and an opportunity to appeal.    These provisions would turn the clock back for employment rights over 100 years. It is worse than traditional at-will employment, and, if enacted, it will make the VA an even less competitive employer.    Unlike private-sector employees, Federal workers cannot bring most contract or tort claims to the courts, so the administrative due process eliminated by section 2 is often VA workers' only real protection. The requirement in H.R. 1994 to get the approval of the Office of Special Counsel will not protect whistleblowers. This proposal ignores the practical realities that not all individuals will file corrective actions, and OSC is not well-suited to essentially pre-approve the removal of every would-be whistleblower.    Employees facing discrimination and other prohibited personnel practices would be forced into filing OSC complaints in order to shield themselves from their new at-will status. This helps neither veterans nor whistleblowers, but it will precipitate a flood of OSC complaints that will paralyze the OSC and obscure the most valid cases of whistleblower retaliation.    Section 3 of the bill would extend the 1-year probationary period to 18 months or longer and gives the Secretary discretion to extend it even further. Probationary employees can be fired very easily under current law. Recently hired veterans working for VA managers who failed to train them know this all too well. OSC and MSPB already struggle to protect probationary employees from unjustified adverse actions because the burden of proof on the employer is extremely low. Extending the probationary period makes this even worse, and it will erode the chances a whistleblower with a legitimate concern will come forward.    Regarding section 4, we do not oppose a responsible study of official time, but such a study should be based on objective criteria, such as those used by the GAO and the OPM. The use of official time in the VA benefits taxpayers and veterans and Federal employees because it reduces costly employee turnover, it improves service, it creates a safer workplace, and it leads to quicker implementation of agency initiatives. Official time gives workers a voice to resolve disputes efficiently, protect whistleblowers from retaliation, and implement new technology and other innovations in collaboration with management.    If H.R. 1994 is not amended to strike provisions that reduce due process, lengthen probationary periods, and attack union official time, the AFGE will vigorously oppose the bill. Instead, Mr. Chairman, we strongly urge you to demonstrate our shared commitment to veterans through positive reform. My written testimony lists our reform proposals, and I will be happy to discuss those.    Thank you again for allowing me to testify.    [The prepared statement of David Borer appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you.    Mr. Neiweem, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Neiweem</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Neiweem. Chairman Wenstrup, Ranking Member Takano, and distinguished members of the subcommittee, on behalf of Iraq and Afghanistan Veterans of America, our nearly 400,000 members and supporters, I would like to extend our gratitude for the opportunity to share our views and recommendations regarding these important pieces of legislation.    Starting with H.R. 356, disabled veteran unemployment has consistently been much higher than that of the greater veteran population, hovering at nearly 20 percent. Disabled veterans must be given the support necessary to overcome barriers to employment and achieve economic empowerment.    VR&amp;E exists for that very purpose, and yet many disabled veterans don't know it exists, do not participate, or too often find the services it offers to be inadequate in securing a rewarding career. This legislation would improve the VR&amp;E programs by creating an action plan to identify why the program is underutilized and put steps in place to improve its output.    The recommendations that would stem from its enactment would include an analysis and plan to increase disabled veteran participation. Additionally, a national staff training program would be installed for the counselors charged with implementing the program to ensure the variety of challenges their clients face are understood holistically. Without a fundamental understanding of the conditions a veteran is facing, a counselor will not be positioned to identify how to help the veteran secure a job and begin a rewarding career.    This legislation would improve a program that has been too often regarded as mediocre due to organizational factors that relates to the veteran-counselor relationship.    Turning to H.R. 832, veterans make use of services to assist them in transition for the sole purpose of improving their economic outcomes. Simply put, they want to succeed and secure a brighter financial tomorrow. This legislation would create a comprehensive longitudinal study to determine to what extent the job services veterans use aid them in securing careers.    Identifying which services veterans use and the amount of time they spent on Active Duty, whether or not they are collecting unemployment benefits, whether or not they secure work, and whether or not they stay with those jobs are all key pieces of information, the collection of which this bill would require. The report and data developed through this legislation is needed to ensure these programs are bringing back a return on investment for the veterans who are using them.    Turning to H.R. 1994, over 1 year after the Phoenix wait-list scandal shook the veterans community nationwide, the Department did not fire one employee for wrongdoing related to that incident. IAVA strongly supported the increased accountability provision of the Veterans Access, Choice, and Accountability Act last year, which gave the VA Secretary increased authority to remove the SES employees who did not serve our veterans to the standard that they earned. We now support in that same spirit expanding this removal authority to the greater VA workforce, notwithstanding whistleblowers, and publicly applaud Chairman Miller for refusing to give the Secretary any less authority than is fully necessary to get the Department back on the right track.    We have heard and agree with DepSec Gibson's testimony a few weeks back, which indicated it is currently too hard to hire and fire employees. This legislation would shorten the appeal period for VA employees engaged in misconduct or poor performance so, in those rare cases of wrongdoing, the Secretary is empowered to take corrective action more briskly. The process of personnel action should not languish in a sea of bureaucracy, as it has been.    I also want to make clear that the vast majority of the VA workforce does a fantastic job of serving our veterans every single day and too often does not receive enough praise. The sooner we get real reforms to stick, the sooner the headlines of misconduct will fade.    And in VA's testimony today you will read the false assumption that by enacting this piece of legislation it will result in disenheartment in the workforce and that employees could leave because of less protections. But the fact is, and VA states it, people serve at the VA because they want to serve veterans. And 90 percent, probably more, do a great job every day. And the idea of getting rid of those few folks the Department has proven they haven't been able to since last summer will improve morale, not reduce it.    H.R. 2133, we strongly support this legislation. It would allow a veteran transitioning away from Active Duty to receive additional education, career, and technical or entrepreneurial training. This would empower servicemembers to give them an early advantage in transitioning back to the workforce.    Turning to H.R. 2275, this legislation would create a fourth administration at VA that would align all veterans education, transition, and job placement programs under one agency entitled the Veterans Economic Opportunity and Transition Administration. This new administration would be led by the Under Secretary for Economic Opportunity.    Veterans we have spoken to have long reported overlapping services have clouded options rather than clarified them. GAO reports and feedback from our annual member survey have indicated the performance of LVERs and DVOPS under DOL-VETS has been stagnant at best and not shown the improvement needed to help veterans secure rewarding careers.    Ineffective oversight and incongruent placement of this service within a myriad of other programs over at DOL has not proven to be a positive fit, so we strongly support the legislation.    I will yield back and am happy to answer any other questions about any other bills.    [The prepared statement of Christopher Neiweem appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you.    Mr. Weidman, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Weidman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weidman. Thank you, Mr. Chairman. VVA appreciates the opportunity to offer our thoughts on the bills under consideration today.    We very much favor 2361 and look forward to an early passage. We would urge you to take a hard look at this bill to expand the kinds of activities that work-study students would be eligible for, including helping with the preparation of veterans' claims and doing other research, such as looking at military documents at the Archives to be able to substantiate claims. That was used very effectively back in the 1970s and early 1980s and, unfortunately, is one of the things that went away, and it would be a good thing to bring back, and very productive.    Also, thank you for 2360. We think that that would also be a bill that would help significantly.    Mr. Flores' TAP bill is--the real problem there is not what the law says; the real problem is what the military does. The Marines solved this problem because the Commandant said, ``You will,'' and put it in the commanders' OERs so if they didn't send all their people they would be relieved. It is real simple. And what is needed is the same kind of engagement from the other five services. And, while this legislation may help, without that strong commitment from the Secretary and from the Joint Chiefs, it ain't gonna happen, bluntly.    H.R. 356, the Employment Improvement Act, may help. I would say that VA in the last few years has made significant progress in cleaning up what was, in fact, a real mess in what is now known as the VR&amp;E services, but this bill can help by simply codifying it and pushing it further.    The other thing in that regard and that touches on a number of things that people talked about today is there is no D-TAP. People talk about TAP and they say, well, we are taking care of veterans who are disabled. In fact, they are not. D-TAP is a myth. It never existed, not back after Vietnam, it did not exist in the 1990s with the big drawdown, and it really doesn't exist today as a program that makes any sense that gets people on track and feeds them right into the programs at VA, particularly Voc Rehab. And that needs to happen and needs to be very effective.    I would also point out that it needs to be a much more transparent process that involves the veterans organizations in a major way. The development of TAP thus far, the VSOs were flat ignored and snubbed in terms of making any input. We don't claim to have purchase on truth with a capital ``T,'' but we know that folks in the bureaucracy don't either. And we do know a thing or two, those of us who have been around here for a year or two. My friends from IAVA think I started right after the Civil War, working in the Pension Building, but it is not true. It was a little bit later than that.</t>
   </si>
   <si>
@@ -181,6 +226,12 @@
     <t>412629</t>
   </si>
   <si>
+    <t>Bost</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bost. Yeah, I would like to continue down, if I could, with the question on 1994.    First off, let me tell you that, one, in my former life I was a union firefighter. Two, I always worked very hard when I worked in a state for AFSCME and those that were under that union. But I have a question, because since having this job, a certain case came up. Let me ask this, because I don't know. I am new at this.    Could you please tell me the doctors that are hired for the VA, do they also fall under your protection on the unions?</t>
   </si>
   <si>
@@ -202,6 +253,12 @@
     <t>412318</t>
   </si>
   <si>
+    <t>Titus</t>
+  </si>
+  <si>
+    <t>Dina</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Titus. Thank you, Mr. Chairman. And thank you and the ranking member for having the hearing today, and also for including the legislation that I introduced, along with a former member of our committee, you heard from him earlier, Colonel Paul Cook of California. We worked together on this, and I was very pleased to do it.    Our bill, the Veterans Employment and Training Service Longitudinal Study Act, would require a longitudinal study for job counseling, training, placement services, so that we can better monitor the effectiveness of these programs.    And I heard several of you mention that you supported this, and I appreciate you offering some comments about how to make the bill work better. And I look forward to working with you on that and hoping that we can move it through this committee.    I would also like to go back and discuss H.R. 1994, VA Employee Accountable Act. We all are in agreement that those serving our veterans as well as public servants in every department need to be held at the highest level. But I have got some concerns about this legislation, like some of you do, that it is going to affect the VA's efforts to recruit and retain the most qualified employees.    Now, I know that the Secretary has prioritized recruiting the best and brightest to join the VA, and I think that is important. We don't want to do anything that ties his hands.    In Nevada, we have a hard time recruiting. We don't have a permanent director of the Reno RO. We have a hospital, brand new hospital without a permanent director. We have a hard time getting doctors to come to that hospital. So we just don't want to do anything that stops that process.    Mr. Gehrke, you mentioned in your testimony that the VA--you highlighted it, several of you mentioned it, but you highlighted it--that the VA needs to be able to quickly fill vacancies within the workforce. And you referred to the report that the VFW issued in September, ``Hurry Up and Wait.'' In this report you suggest that Congress examine ways to streamline the hiring process so that we can hire the best employees.    I wonder if you would share some of the details of that and maybe give us some concrete proposals of how we could do that, because I would like to work with you and the other VSOs on improving that process, and then I would ask them if they have any particular suggestions as well.</t>
   </si>
   <si>
@@ -223,6 +280,12 @@
     <t>412647</t>
   </si>
   <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Rice. you are recognized for 5 minutes.</t>
   </si>
   <si>
@@ -262,18 +325,27 @@
     <t xml:space="preserve">    Dr. Wenstrup. I want to now recognize our final panel of witnesses today. First, I want to welcome back Mr. Curt Coy, Deputy Under Secretary for Economic Opportunity at the U.S. Department of Veterans Affairs. And he is accompanied by Ms. Cathy Mitrano, Deputy Assistant Secretary for the Office of Resource Management at the U.S. Department of Veterans Affairs.    We also have Ms. Teresa Gerton, who is now the Acting Assistant Secretary for the Veterans' Employment and Training Service at the U.S. Department of Labor. And finally, we have Dr. Susan Kelly, Director of the Transition to Veterans Program Office in the Office of the Under Secretary of Defense for Personnel and Readiness at the U.S. Department of Defense.    I want to thank you all for being with us today.    Mr. Coy, if you are ready, then we will begin with you. And you will be recognized for 5 minutes as soon as you get settled.</t>
   </si>
   <si>
+    <t>Coy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Coy. Thank you, Mr. Chairman. And good afternoon, Mr. Chairman, Ranking Member Takano, and other members of this subcommittee. Thank you for the opportunity to be here today to discuss legislation pertaining to VA economic opportunity programs. Accompanying me today is Cathy Mitrano, Deputy Assistant Secretary for the Office of Research Management.    We are here to discuss several impactful bills. We will defer to our colleagues at Labor and Defense on those that pertain to their programs.    With respect to H.R. 2275, Jobs for Veterans Act, while we appreciate the committee's focus on improving employment and economic opportunity for veterans by consolidating various programs, VA does not support the bill. VA believes there is currently an appropriate management structure in place to oversee veteran programs in a collaborative environment.    VA is pleased, however, to see several bills that seek to improve our vocational rehabilitation and employment services to our wounded warriors and disabled veterans. We support the intent and purpose of most of the provisions of these bills and would like to work with the committee to ensure the bill language meets that intent. For example, a requirement to ensure voc rehab courses of education meet the same requirements as those for the GI Bill. We are currently doing so.    Less than 1 percent of voc rehab plans have courses that are not GI Bill approved, but there are occasional instances where veterans' requirements cannot be met with GI Bill courses. We agree that voc rehab housing modifications are best managed by our Specially Adaptive Housing grant experts in our Loan Guarantee Service, but the bill as written may not meet the intent or have unintended consequences.    VA supports the intent to prioritizing VRE services and currently tries to do just that through our IDES program and ensuring seriously and very seriously injured veterans receive VRE appointments within 10 days and have established plans within 30 days. Conducting a complete study, likely with contractor support and to include input from our various stakeholders, would certainly take time and resources.    VA supports and appreciates the intent of reducing redundancy and inefficiencies in the IT process for VRE claims. We are currently working with our Office of Information Technology for a new case management system. This effort would complement that effort subject to availability of appropriated funds.    Another bill would require VA to develop and publish an action plan for improving and in training and rehabilitation services for our VRE clients. While we support this effort, we believe we are currently focusing on these issues, and we would be happy to discuss some of those efforts.    With respect to the VA Accountability Act of 2015, VA will continue to work with the committee and VSOs on how the Secretary can best hold employees accountable while preserving the ability to recruit and retain highly skilled workforce that VA needs to best serve veterans.    VA supports the intent behind the Career-Ready Veterans Act; however, we do not support the bill as currently drafted and would be happy to work with the committee to ensure the language meets that intent. We agree that courses or programs of instruction should ensure students can meet the licensure and certification requirements of a state's particular vocation. If a veteran is using their well-earned GI Bill benefits to become a barber or a nurse, the program should prepare them to be obtain a barber certificate or a nursing license. We are ready to work with the committee to address any inconsistencies in that bill.    VA fully supports the workstudy program for a student veterans act that expands the program to those efforts previously expired in 2013 and extending the current expiration date.    Mr. Chairman, this concludes my statement. Thank you for the opportunity to appear before you today. We would be pleased to respond to any questions you or other members of the subcommittee may have. Thank you, sir.    [The prepared statement of Mr. Coy appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you, Mr. Coy.    Assistant Secretary Gerton, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Gerton</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gerton. Good afternoon, Chairman Wenstrup, Ranking Member Takano, and members of the subcommittee. Thank you very much for the opportunity to participate in today's hearing. As Acting Assistant Secretary of the Veterans' Employment and Training Service at the Department of Labor, I appreciate the opportunity to discuss the Department's views on pending legislation and proposals impacting veterans.    While this hearing is reviewing several bills under consideration by the subcommittee, I will limit my remarks to the Job for Veterans Act and the Veterans Employment and Training Service Longitudinal Study Act.    The Jobs for Veterans Act of 2015 seeks to establish the Veterans Economic Opportunity and Transition Administration within the Department of Veterans Affairs and to transfer DOL's veterans programs to the VA. The administration does not support moving the Veterans' Employment and Training Service or its programs to VA.    The veterans employment services DOL provides are well integrated into the public workforce system that is overseen and funded by DOL and shifting these services to VA would weaken this connection. VETS is able to accomplish its mission by working closely with other parts of the Department, including the Employment and Training Administration, which administers numerous core employment and training formula programs.    Together, these DOL programs provide a unified and complementary approach to serving and protecting the reemployment rights of veterans and have operated together within the states for decades. We believe that moving vets to another agency will diminish the synergy gained through alignment of these programs with other Department of Labor employment and training programs, as well as those that protect the rights of servicemembers, veterans, and their families.    Further, DOL's connection with governor-appointed state or local workforce boards and state workforce agencies that oversee the nearly 2,500 American Job Centers across the Nation facilitates veterans' employment with large national employers, as well as those small and medium-sized businesses that do most of the hiring. Our long-established relationship with the state workforce agencies is a partnership that delivers proven and positive results.    The movement of veterans' employment programs and services from DOL to the VA would generate inefficiencies by removing existing employment programs and services for veterans from the national employment services network that already exists for all America's job seekers and workers.    Other significant changes are currently underway in the public workforce system as it affects education, training, and employment services for veterans and their families. The Workforce Innovation and Opportunity Act, signed into law last year, was the first legislative reform of the public workforce system in over 15 years. This transformational legislation, which passed by a wide bipartisan majority, reaffirmed the roles of the American Job Center system that served over 1.1 million veterans last year and brought together and enhanced several key employment, education, and training programs.    The Opportunity Act modernized the public workforce system to help job seekers and workers access the services they need to succeed in the labor market and match employers with the skilled workers they need to compete in the global economy.    The Opportunity Act also requires a new data reporting structure. Currently, reporting requirements are met through the state workforce agencies which are funded by DOL's Employment and Training Administration. The reporting system for veterans' employment outcomes is part of the Department's reporting regime for the workforce system. Any requirements to adjust or change collection of veterans' data under H.R. 2275 would require extensive coordination between two departments instead of two agencies in the same department. Further, requiring VA systems to integrate with the new labor reporting system is likely to generate tens of millions of dollars in additional costs.    The administration wants to ensure that we build on the established relationships and the improvements called for in the Workforce Innovation and Opportunity Act to modernize the public workforce system and American Job Centers to better help our transitioning servicemembers and veterans obtain family sustaining jobs. For this reason, the administration does not support any legislation that would undermine its progress or ability to help veterans and transitioning servicemembers achieve positive employment outcomes.    The Department does support the enactment of the Veterans Employment and Training Service Longitudinal Study Act, which would direct the Secretary to enter into a contract with a nongovernment entity to conduct a statistically valid longitudinal study of veterans and the job counseling, training, and placement services for veterans provided by the Department. However, we do have technical concerns enumerated in our written statement and look forward to working with the committee to address those issues.    Chairman Wenstrup, Ranking Member Takano, distinguished members of the subcommittee, this concludes my statement. Thank you for the opportunity to be part of this hearing, and I welcome any questions you may have.    [The prepared statement of Ms. Gerton appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Ms. Gerton.    Dr. Kelly, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Kelly</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kelly. Chairman Wenstrup, Ranking Member Takano, and members of the subcommittee, I am pleased to appear before you today to discuss and share the Department of Defense's views relating to several pieces of proposed legislation.    Regarding H.R. 2133, which would amend section 1144 of Title 10, United States Code, the Department does not believe it is necessary. The current DoD policy provides servicemembers the opportunity to participate in all training tracks in addition to the core transition GPS curriculum. These training tracks are now offered at 206 military sites worldwide. The Department believes that further legislation to permit servicemembers to receive these specific training tracks would limit our flexibility to modify the training and education needed by transitioning servicemembers as the program evolves.    Regarding H.R. 2275, section 4, the Department believes that the best way to maintain an all-volunteer force is to demonstrate to potential recruits that servicemembers thrive when they return to the civilian workforce. One way to improve the likelihood of this is to ensure our servicemembers receive the best training possible on employment opportunities, resources, rights, and practices.    Since the passage of the Vow to Hire Heroes Act of 2011 and the redesign of the Transition Assistance Program, the Department has gained a greater appreciation for the value that the Department of Labor Employment Workshop provides our servicemembers. The Department of Labor's familiarity with the modern labor market, expertise in assisting with credentialing, licensing, and finding registered apprenticeships, and its connection to state labor offices makes it the single best organization in our Federal Government to provide labor-related services not only to our servicemembers, but to all American citizens.    The success of the DOL's Employment Workshop proves its value. On average, 91 percent of transitioning servicemembers who participate in a 3-day employment workshop say the training enhanced their confidence in transition planning, 93 percent said they will use what they learned, and 96 percent said the facilitators were knowledgeable about the material.    The Employment Workshop's emphasis on providing servicemembers early access to state-run American Job Centers is a critical factor in assisting our servicemembers in finding employment. Segregating veteran services and staff from the employment services available to the rest of the Nation is inefficient and potentially puts veteran reintegration into civilian life at risk.    Since the revised workshop began in 2012, the outlook for servicemembers transitioning to the civilian workforce has brightened every year. This is good news. But to best ensure continued progress, as well as to discover innovative ways to build what Secretary Carter has called the force of the future, DoD and DOL must continue to work together.    We would hope not to have diversions from that close work with DOL, as we strongly believe that it is the single-best organization in our Federal Government to provide labor-related services.    Regarding the draft bill that would amend Title 38, U.S. Code, the DoD believes that this draft bill appears to mirror several of the education proposals from the Military Compensation and Retirement Modernization Commission final report from January of 2015.    In response to that report, the DoD deferred comment until it has more data on the impacts of transferability on educational benefits on retention. Similarly, the Department stated on May 13 in testimony to the Senate Committee on Veterans' Affairs that without data enabling the Department to understand the potential effects on retention the Department cannot support a bill that changes the Post-9/11 GI Bill housing stipend for dependents or the proposed language to increase the eligibility requirements for transferring Post-9/11 GI Bill benefits.    To this end, the Department has sponsored a study with Rand to review educational benefits for servicemembers to include the benefits of the Post-9/11 GI Bill and the impacts on retention with a focus on impacts of transferability. We anticipate the study to be completed in the summer of 2016.    Regardless of the outcomes of the study, the Department strongly believes that those servicemembers who have already committed to additional service obligations should be grandfathered and their dependents should not be subject to any reduction in transferability that may be imposed by further legislation. The Department defers to the VA regarding any costs to this bill.    Mr. Chairman, I thank you and the members of this subcommittee for your outstanding and continuing support for the men and women who proudly wear the uniform in defense of our great Nation.    [The prepared statement of Ms. Kelly appears in the Appendix]</t>
   </si>
   <si>
@@ -293,6 +365,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coy. If I may, Mr. Chairman, I would like to ask Ms. Mitrano to address that specific question.</t>
+  </si>
+  <si>
+    <t>Mitrano</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Mitrano. Thank you.    Well, first of all, I don't think that we differ with the President's statement or this committee's stated desire for accountability within VA. Certainly, we are all about trying to hold people accountable for those unethical and those egregious-type conduct actions that we have seen displayed. However, this piece of legislation extends to all of the GS employees throughout VA, and it is targeted at VA only, it is not a government-wide reform of course. And we believe it simply is going a bit too far when it comes to the due process depravations to that broad a group of employees.</t>
@@ -809,7 +884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,7 +892,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -839,3269 +914,3828 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G44" t="s">
+        <v>70</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G46" t="s">
+        <v>70</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G48" t="s">
+        <v>79</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G50" t="s">
+        <v>79</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G54" t="s">
+        <v>88</v>
+      </c>
       <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G55" t="s">
+        <v>88</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G57" t="s">
+        <v>88</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G60" t="s">
+        <v>88</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>52</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>68</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G62" t="s">
+        <v>88</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G64" t="s">
+        <v>88</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>103</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>106</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>109</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>106</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>106</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>117</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>117</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>117</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
       <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I84" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>109</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>109</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
       <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>109</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
       <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>117</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
       <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G93" t="s">
+        <v>117</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
       <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>117</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
       <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G97" t="s">
+        <v>117</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
       <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G99" t="s">
+        <v>117</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
       <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>117</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
       <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>117</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
       <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>117</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
       <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G107" t="s">
+        <v>117</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>17</v>
+      </c>
       <c r="H108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G109" t="s">
+        <v>117</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s">
+        <v>17</v>
+      </c>
       <c r="H110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I110" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G111" t="s">
+        <v>117</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>117</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>17</v>
+      </c>
       <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G114" t="s">
+        <v>117</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>17</v>
+      </c>
       <c r="H115" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>68</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G117" t="s">
+        <v>88</v>
+      </c>
       <c r="H117" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G118" t="s">
+        <v>103</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>68</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G119" t="s">
+        <v>88</v>
+      </c>
       <c r="H119" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>103</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>68</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G121" t="s">
+        <v>88</v>
+      </c>
       <c r="H121" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I121" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>103</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>68</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G123" t="s">
+        <v>88</v>
+      </c>
       <c r="H123" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I123" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>103</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>117</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>68</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G126" t="s">
+        <v>88</v>
+      </c>
       <c r="H126" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I126" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>117</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>68</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G128" t="s">
+        <v>88</v>
+      </c>
       <c r="H128" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I128" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G129" t="s">
+        <v>117</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>68</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G130" t="s">
+        <v>88</v>
+      </c>
       <c r="H130" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I130" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G131" t="s">
+        <v>117</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>68</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G132" t="s">
+        <v>88</v>
+      </c>
       <c r="H132" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I132" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
       <c r="H133" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G134" t="s">
+        <v>117</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
       <c r="H135" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
       <c r="H137" t="s">
-        <v>148</v>
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98640.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98640.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412564</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Wenstrup</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412520</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Takano</t>
   </si>
   <si>
@@ -224,6 +233,9 @@
   </si>
   <si>
     <t>412629</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Bost</t>
@@ -884,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -892,7 +904,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,3825 +929,4112 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>29</v>
       </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G42" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G44" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G46" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H50" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>40</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G55" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>46</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>49</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G57" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H57" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I57" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>49</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>52</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>55</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G60" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H60" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I60" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>52</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>55</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G62" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I62" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>52</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>55</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G64" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I64" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>103</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>107</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>106</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>110</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>109</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>113</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>106</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>110</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>106</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>110</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>103</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>107</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>117</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>121</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>117</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>121</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>117</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>121</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I84" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>109</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>113</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H86" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I86" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>109</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>113</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I88" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>109</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>113</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>117</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>121</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I92" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J92" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>117</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>121</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I94" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J94" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>117</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>121</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I96" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J96" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>117</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>121</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I98" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J98" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>117</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>121</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I100" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>117</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>121</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G102" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I102" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>117</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>121</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H104" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I104" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>117</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>121</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G106" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I106" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" t="s">
-        <v>117</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>121</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G108" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I108" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s">
-        <v>117</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>121</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H110" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I110" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J110" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>117</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>121</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>117</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>121</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G113" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H113" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I113" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J113" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>117</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>121</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G115" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H115" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I115" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G117" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H117" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I117" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>103</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>107</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G119" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H119" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I119" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>103</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>107</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G121" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H121" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I121" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>103</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>107</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G123" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H123" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I123" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J123" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>103</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>107</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s">
-        <v>117</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>121</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G126" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H126" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I126" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" t="s">
-        <v>117</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>121</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G128" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H128" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I128" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J128" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" t="s">
-        <v>117</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>121</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G130" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H130" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I130" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J130" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" t="s">
-        <v>117</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>121</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G132" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H132" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I132" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J132" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I133" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J133" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s">
-        <v>117</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>121</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I135" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J135" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I137" t="s">
-        <v>173</v>
+        <v>16</v>
+      </c>
+      <c r="J137" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
